--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3469586.850934644</v>
+        <v>3467407.04223014</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8332028.172575413</v>
+        <v>8332028.172575417</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215498.8072369355</v>
+        <v>215498.8072369359</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8040017.542157608</v>
+        <v>8040017.542157607</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11.91464376220975</v>
+      </c>
+      <c r="T2" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>6.602605461619501</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>13.47865120333094</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>15.30273751513505</v>
@@ -823,47 +823,47 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="R4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="W4" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.956053622142033</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -914,49 +914,49 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.602605461619501</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,17 +972,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1060,46 +1060,46 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>15.30273751513505</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,64 +1212,64 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="V9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>15.30273751513505</v>
@@ -1294,67 +1294,67 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E10" t="n">
+      <c r="S10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F10" t="n">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="G10" t="n">
+      <c r="X10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>331.7132802195407</v>
       </c>
       <c r="F11" t="n">
-        <v>356.65895588899</v>
+        <v>356.6589558889904</v>
       </c>
       <c r="G11" t="n">
-        <v>360.8644278073312</v>
+        <v>360.8644278073314</v>
       </c>
       <c r="H11" t="n">
         <v>246.0271444221797</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.61193228582566</v>
+        <v>62.61193228582563</v>
       </c>
       <c r="T11" t="n">
         <v>154.4003697957855</v>
@@ -1427,7 +1427,7 @@
         <v>200.7908654667088</v>
       </c>
       <c r="V11" t="n">
-        <v>277.5351686174139</v>
+        <v>277.5351686174138</v>
       </c>
       <c r="W11" t="n">
         <v>299.0238788646919</v>
@@ -1436,7 +1436,7 @@
         <v>319.514010825748</v>
       </c>
       <c r="Y11" t="n">
-        <v>336.0208488033326</v>
+        <v>336.0208488033325</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.6148903292163</v>
+        <v>129.6148903292162</v>
       </c>
       <c r="C13" t="n">
         <v>117.0297312459068</v>
       </c>
       <c r="D13" t="n">
-        <v>98.39838316549131</v>
+        <v>98.39838316549128</v>
       </c>
       <c r="E13" t="n">
-        <v>96.21687279384813</v>
+        <v>96.2168727938481</v>
       </c>
       <c r="F13" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021017</v>
       </c>
       <c r="G13" t="n">
-        <v>115.8803955994311</v>
+        <v>115.8803955994324</v>
       </c>
       <c r="H13" t="n">
-        <v>95.17520046955624</v>
+        <v>95.17520046955622</v>
       </c>
       <c r="I13" t="n">
-        <v>48.29085923760884</v>
+        <v>48.29085923760796</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.93793006451739</v>
+        <v>41.93793006451736</v>
       </c>
       <c r="S13" t="n">
         <v>140.8010734716172</v>
       </c>
       <c r="T13" t="n">
-        <v>169.6381165213414</v>
+        <v>169.6381165213413</v>
       </c>
       <c r="U13" t="n">
         <v>235.9986580179713</v>
       </c>
       <c r="V13" t="n">
-        <v>201.920553471107</v>
+        <v>201.9205534711069</v>
       </c>
       <c r="W13" t="n">
-        <v>236.30590848387</v>
+        <v>236.3059084838699</v>
       </c>
       <c r="X13" t="n">
         <v>175.4925655363161</v>
@@ -1622,7 +1622,7 @@
         <v>360.8644278073312</v>
       </c>
       <c r="H14" t="n">
-        <v>246.0271444221794</v>
+        <v>246.0271444221797</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.61193228582566</v>
+        <v>62.61193228582564</v>
       </c>
       <c r="T14" t="n">
         <v>154.4003697957855</v>
@@ -1664,7 +1664,7 @@
         <v>200.7908654667088</v>
       </c>
       <c r="V14" t="n">
-        <v>277.5351686174139</v>
+        <v>277.5351686174138</v>
       </c>
       <c r="W14" t="n">
         <v>299.0238788646919</v>
@@ -1673,7 +1673,7 @@
         <v>319.514010825748</v>
       </c>
       <c r="Y14" t="n">
-        <v>336.0208488033326</v>
+        <v>336.0208488033325</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.6148903292163</v>
+        <v>129.6148903292162</v>
       </c>
       <c r="C16" t="n">
         <v>117.0297312459068</v>
       </c>
       <c r="D16" t="n">
-        <v>98.39838316549131</v>
+        <v>98.39838316549128</v>
       </c>
       <c r="E16" t="n">
-        <v>96.21687279384813</v>
+        <v>96.2168727938481</v>
       </c>
       <c r="F16" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021017</v>
       </c>
       <c r="G16" t="n">
         <v>115.8803955994311</v>
       </c>
       <c r="H16" t="n">
-        <v>95.17520046955624</v>
+        <v>95.17520046955622</v>
       </c>
       <c r="I16" t="n">
-        <v>48.29085923760799</v>
+        <v>48.29085923760797</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.93793006451739</v>
+        <v>41.93793006451737</v>
       </c>
       <c r="S16" t="n">
         <v>140.8010734716172</v>
       </c>
       <c r="T16" t="n">
-        <v>169.6381165213414</v>
+        <v>169.6381165213413</v>
       </c>
       <c r="U16" t="n">
         <v>235.9986580179713</v>
       </c>
       <c r="V16" t="n">
-        <v>201.920553471107</v>
+        <v>201.9205534711069</v>
       </c>
       <c r="W16" t="n">
-        <v>236.30590848387</v>
+        <v>236.3059084838699</v>
       </c>
       <c r="X16" t="n">
         <v>175.4925655363161</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107596</v>
       </c>
       <c r="C17" t="n">
         <v>315.0558019182865</v>
@@ -1850,16 +1850,16 @@
         <v>304.4659517679619</v>
       </c>
       <c r="E17" t="n">
-        <v>331.7132802195407</v>
+        <v>331.7132802195408</v>
       </c>
       <c r="F17" t="n">
         <v>356.6589558889904</v>
       </c>
       <c r="G17" t="n">
-        <v>360.8644278073312</v>
+        <v>360.8644278073313</v>
       </c>
       <c r="H17" t="n">
-        <v>246.0271444221794</v>
+        <v>246.0271444221797</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.61193228582566</v>
+        <v>62.61193228582568</v>
       </c>
       <c r="T17" t="n">
         <v>154.4003697957855</v>
       </c>
       <c r="U17" t="n">
-        <v>200.7908654667088</v>
+        <v>200.7908654667089</v>
       </c>
       <c r="V17" t="n">
         <v>277.5351686174139</v>
       </c>
       <c r="W17" t="n">
-        <v>299.0238788646919</v>
+        <v>299.023878864692</v>
       </c>
       <c r="X17" t="n">
         <v>319.514010825748</v>
@@ -2005,22 +2005,22 @@
         <v>117.0297312459068</v>
       </c>
       <c r="D19" t="n">
-        <v>98.39838316549131</v>
+        <v>98.39838316549134</v>
       </c>
       <c r="E19" t="n">
-        <v>96.21687279384813</v>
+        <v>96.21687279384768</v>
       </c>
       <c r="F19" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021023</v>
       </c>
       <c r="G19" t="n">
-        <v>115.8803955994311</v>
+        <v>115.8803955994312</v>
       </c>
       <c r="H19" t="n">
-        <v>95.17520046955624</v>
+        <v>95.17520046955627</v>
       </c>
       <c r="I19" t="n">
-        <v>48.29085923760799</v>
+        <v>48.29085923760802</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.93793006451739</v>
+        <v>41.93793006451742</v>
       </c>
       <c r="S19" t="n">
         <v>140.8010734716172</v>
@@ -2068,7 +2068,7 @@
         <v>175.4925655363161</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3675634993737</v>
+        <v>168.3675634993738</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107596</v>
       </c>
       <c r="C20" t="n">
         <v>315.0558019182865</v>
@@ -2087,7 +2087,7 @@
         <v>304.4659517679619</v>
       </c>
       <c r="E20" t="n">
-        <v>331.7132802195407</v>
+        <v>331.7132802195408</v>
       </c>
       <c r="F20" t="n">
         <v>356.6589558889904</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.61193228582566</v>
+        <v>62.61193228582568</v>
       </c>
       <c r="T20" t="n">
         <v>154.4003697957855</v>
       </c>
       <c r="U20" t="n">
-        <v>200.7908654667088</v>
+        <v>200.7908654667089</v>
       </c>
       <c r="V20" t="n">
         <v>277.5351686174139</v>
       </c>
       <c r="W20" t="n">
-        <v>299.0238788646919</v>
+        <v>299.023878864692</v>
       </c>
       <c r="X20" t="n">
         <v>319.514010825748</v>
@@ -2242,22 +2242,22 @@
         <v>117.0297312459068</v>
       </c>
       <c r="D22" t="n">
-        <v>98.39838316549131</v>
+        <v>98.39838316549134</v>
       </c>
       <c r="E22" t="n">
-        <v>96.21687279384813</v>
+        <v>96.21687279384815</v>
       </c>
       <c r="F22" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021023</v>
       </c>
       <c r="G22" t="n">
-        <v>115.8803955994311</v>
+        <v>115.8803955994312</v>
       </c>
       <c r="H22" t="n">
-        <v>95.17520046955624</v>
+        <v>95.17520046955627</v>
       </c>
       <c r="I22" t="n">
-        <v>48.29085923760799</v>
+        <v>48.29085923760802</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.93793006451833</v>
+        <v>41.93793006451742</v>
       </c>
       <c r="S22" t="n">
         <v>140.8010734716172</v>
@@ -2305,7 +2305,7 @@
         <v>175.4925655363161</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3675634993737</v>
+        <v>168.3675634993738</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107596</v>
       </c>
       <c r="C23" t="n">
         <v>315.0558019182865</v>
@@ -2324,13 +2324,13 @@
         <v>304.4659517679619</v>
       </c>
       <c r="E23" t="n">
-        <v>331.7132802195407</v>
+        <v>331.7132802195408</v>
       </c>
       <c r="F23" t="n">
         <v>356.6589558889904</v>
       </c>
       <c r="G23" t="n">
-        <v>360.8644278073312</v>
+        <v>360.8644278073313</v>
       </c>
       <c r="H23" t="n">
         <v>246.0271444221797</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.61193228582563</v>
+        <v>62.61193228582568</v>
       </c>
       <c r="T23" t="n">
         <v>154.4003697957855</v>
       </c>
       <c r="U23" t="n">
-        <v>200.7908654667088</v>
+        <v>200.7908654667089</v>
       </c>
       <c r="V23" t="n">
-        <v>277.5351686174138</v>
+        <v>277.5351686174139</v>
       </c>
       <c r="W23" t="n">
-        <v>299.0238788646919</v>
+        <v>299.023878864692</v>
       </c>
       <c r="X23" t="n">
         <v>319.514010825748</v>
       </c>
       <c r="Y23" t="n">
-        <v>336.0208488033325</v>
+        <v>336.0208488033326</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.6148903292162</v>
+        <v>129.6148903292163</v>
       </c>
       <c r="C25" t="n">
         <v>117.0297312459068</v>
       </c>
       <c r="D25" t="n">
-        <v>98.39838316549128</v>
+        <v>98.39838316549134</v>
       </c>
       <c r="E25" t="n">
-        <v>96.2168727938481</v>
+        <v>96.21687279384815</v>
       </c>
       <c r="F25" t="n">
-        <v>95.20395817021017</v>
+        <v>95.20395817021023</v>
       </c>
       <c r="G25" t="n">
-        <v>115.8803955994311</v>
+        <v>115.8803955994312</v>
       </c>
       <c r="H25" t="n">
-        <v>95.17520046955622</v>
+        <v>95.17520046955627</v>
       </c>
       <c r="I25" t="n">
-        <v>48.29085923760929</v>
+        <v>48.29085923760801</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.93793006451736</v>
+        <v>41.93793006451741</v>
       </c>
       <c r="S25" t="n">
         <v>140.8010734716172</v>
       </c>
       <c r="T25" t="n">
-        <v>169.6381165213413</v>
+        <v>169.6381165213414</v>
       </c>
       <c r="U25" t="n">
         <v>235.9986580179713</v>
       </c>
       <c r="V25" t="n">
-        <v>201.9205534711069</v>
+        <v>201.920553471107</v>
       </c>
       <c r="W25" t="n">
-        <v>236.3059084838699</v>
+        <v>236.30590848387</v>
       </c>
       <c r="X25" t="n">
         <v>175.4925655363161</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3675634993737</v>
+        <v>168.3675634993738</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>124.5753369865553</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.3922903222773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>58.79424836269425</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.15501991723843</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>191.0181633243382</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.8552063740624</v>
       </c>
       <c r="U28" t="n">
         <v>286.2157478706923</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.50794909032903</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>92.15501991723843</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>191.0181633243382</v>
       </c>
       <c r="T31" t="n">
-        <v>216.1861866215682</v>
+        <v>219.8552063740624</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2157478706923</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>97.54692153285181</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>131.6790827211296</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.3922903222773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,16 +3235,16 @@
         <v>92.15501991723843</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>191.0181633243382</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.8552063740624</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2157478706923</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>142.606257548058</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107596</v>
       </c>
       <c r="C35" t="n">
         <v>315.0558019182865</v>
@@ -3272,13 +3272,13 @@
         <v>304.4659517679619</v>
       </c>
       <c r="E35" t="n">
-        <v>331.7132802195407</v>
+        <v>331.7132802195408</v>
       </c>
       <c r="F35" t="n">
         <v>356.6589558889904</v>
       </c>
       <c r="G35" t="n">
-        <v>360.8644278073312</v>
+        <v>360.8644278073313</v>
       </c>
       <c r="H35" t="n">
         <v>246.0271444221797</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.61193228582565</v>
+        <v>62.6119322858257</v>
       </c>
       <c r="T35" t="n">
         <v>154.4003697957855</v>
       </c>
       <c r="U35" t="n">
-        <v>200.7908654667088</v>
+        <v>200.7908654667089</v>
       </c>
       <c r="V35" t="n">
-        <v>277.5351686174138</v>
+        <v>277.5351686174139</v>
       </c>
       <c r="W35" t="n">
-        <v>299.0238788646919</v>
+        <v>299.023878864692</v>
       </c>
       <c r="X35" t="n">
         <v>319.514010825748</v>
       </c>
       <c r="Y35" t="n">
-        <v>336.0208488033325</v>
+        <v>336.0208488033326</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>117.0297312459068</v>
       </c>
       <c r="D37" t="n">
-        <v>98.39838316549131</v>
+        <v>98.39838316549135</v>
       </c>
       <c r="E37" t="n">
-        <v>96.21687279384813</v>
+        <v>96.21687279384817</v>
       </c>
       <c r="F37" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021024</v>
       </c>
       <c r="G37" t="n">
-        <v>115.8803955994311</v>
+        <v>115.8803955994312</v>
       </c>
       <c r="H37" t="n">
-        <v>95.17520046955624</v>
+        <v>95.17520046955629</v>
       </c>
       <c r="I37" t="n">
-        <v>48.29085923760798</v>
+        <v>48.29085923760803</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.93793006451738</v>
+        <v>41.93793006451743</v>
       </c>
       <c r="S37" t="n">
-        <v>140.8010734716172</v>
+        <v>140.8010734716173</v>
       </c>
       <c r="T37" t="n">
         <v>169.6381165213414</v>
@@ -3490,7 +3490,7 @@
         <v>175.4925655363161</v>
       </c>
       <c r="Y37" t="n">
-        <v>168.3675634993737</v>
+        <v>168.3675634993738</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.61193228582568</v>
+        <v>62.6119322858257</v>
       </c>
       <c r="T38" t="n">
         <v>154.4003697957855</v>
@@ -3664,22 +3664,22 @@
         <v>117.0297312459068</v>
       </c>
       <c r="D40" t="n">
-        <v>98.39838316549134</v>
+        <v>98.39838316549135</v>
       </c>
       <c r="E40" t="n">
-        <v>96.21687279384815</v>
+        <v>96.21687279384817</v>
       </c>
       <c r="F40" t="n">
-        <v>95.20395817021023</v>
+        <v>95.20395817021024</v>
       </c>
       <c r="G40" t="n">
         <v>115.8803955994312</v>
       </c>
       <c r="H40" t="n">
-        <v>95.17520046955627</v>
+        <v>95.17520046955629</v>
       </c>
       <c r="I40" t="n">
-        <v>48.29085923760801</v>
+        <v>48.29085923760803</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.93793006451741</v>
+        <v>41.93793006451743</v>
       </c>
       <c r="S40" t="n">
         <v>140.8010734716172</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107596</v>
       </c>
       <c r="C41" t="n">
-        <v>315.0558019182865</v>
+        <v>315.0558019182866</v>
       </c>
       <c r="D41" t="n">
-        <v>304.4659517679625</v>
+        <v>304.4659517679609</v>
       </c>
       <c r="E41" t="n">
-        <v>331.7132802195407</v>
+        <v>331.7132802195408</v>
       </c>
       <c r="F41" t="n">
-        <v>356.6589558889904</v>
+        <v>356.6589558889905</v>
       </c>
       <c r="G41" t="n">
-        <v>360.8644278073312</v>
+        <v>360.8644278073313</v>
       </c>
       <c r="H41" t="n">
-        <v>246.0271444221797</v>
+        <v>246.0271444221798</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.61193228582566</v>
+        <v>62.61193228582574</v>
       </c>
       <c r="T41" t="n">
-        <v>154.4003697957855</v>
+        <v>154.4003697957856</v>
       </c>
       <c r="U41" t="n">
-        <v>200.7908654667088</v>
+        <v>200.7908654667089</v>
       </c>
       <c r="V41" t="n">
-        <v>277.5351686174138</v>
+        <v>277.5351686174139</v>
       </c>
       <c r="W41" t="n">
-        <v>299.0238788646919</v>
+        <v>299.0238788646921</v>
       </c>
       <c r="X41" t="n">
-        <v>319.514010825748</v>
+        <v>319.5140108257481</v>
       </c>
       <c r="Y41" t="n">
-        <v>336.0208488033325</v>
+        <v>336.0208488033326</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>129.6148903292163</v>
       </c>
       <c r="C43" t="n">
-        <v>117.0297312459068</v>
+        <v>117.0297312459069</v>
       </c>
       <c r="D43" t="n">
-        <v>98.39838316549131</v>
+        <v>98.3983831654914</v>
       </c>
       <c r="E43" t="n">
-        <v>96.21687279384813</v>
+        <v>96.21687279384821</v>
       </c>
       <c r="F43" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021029</v>
       </c>
       <c r="G43" t="n">
-        <v>115.8803955994311</v>
+        <v>115.8803955994312</v>
       </c>
       <c r="H43" t="n">
-        <v>95.17520046955624</v>
+        <v>95.17520046955633</v>
       </c>
       <c r="I43" t="n">
-        <v>48.29085923760799</v>
+        <v>48.29085923760635</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.93793006451739</v>
+        <v>41.93793006451747</v>
       </c>
       <c r="S43" t="n">
-        <v>140.8010734716179</v>
+        <v>140.8010734716173</v>
       </c>
       <c r="T43" t="n">
-        <v>169.6381165213414</v>
+        <v>169.6381165213415</v>
       </c>
       <c r="U43" t="n">
-        <v>235.9986580179713</v>
+        <v>235.9986580179714</v>
       </c>
       <c r="V43" t="n">
         <v>201.920553471107</v>
@@ -3961,10 +3961,10 @@
         <v>236.30590848387</v>
       </c>
       <c r="X43" t="n">
-        <v>175.4925655363161</v>
+        <v>175.4925655363162</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.3675634993737</v>
+        <v>168.3675634993738</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107596</v>
       </c>
       <c r="C44" t="n">
-        <v>315.0558019182865</v>
+        <v>315.0558019182866</v>
       </c>
       <c r="D44" t="n">
-        <v>304.4659517679619</v>
+        <v>304.465951767962</v>
       </c>
       <c r="E44" t="n">
-        <v>331.7132802195407</v>
+        <v>331.7132802195398</v>
       </c>
       <c r="F44" t="n">
-        <v>356.6589558889904</v>
+        <v>356.6589558889905</v>
       </c>
       <c r="G44" t="n">
-        <v>360.8644278073312</v>
+        <v>360.8644278073313</v>
       </c>
       <c r="H44" t="n">
-        <v>246.0271444221797</v>
+        <v>246.0271444221798</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.61193228582594</v>
+        <v>62.61193228582574</v>
       </c>
       <c r="T44" t="n">
-        <v>154.4003697957855</v>
+        <v>154.4003697957856</v>
       </c>
       <c r="U44" t="n">
-        <v>200.7908654667088</v>
+        <v>200.7908654667089</v>
       </c>
       <c r="V44" t="n">
-        <v>277.5351686174138</v>
+        <v>277.5351686174139</v>
       </c>
       <c r="W44" t="n">
-        <v>299.0238788646919</v>
+        <v>299.0238788646921</v>
       </c>
       <c r="X44" t="n">
-        <v>319.514010825748</v>
+        <v>319.5140108257481</v>
       </c>
       <c r="Y44" t="n">
-        <v>336.0208488033325</v>
+        <v>336.0208488033326</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>129.6148903292163</v>
       </c>
       <c r="C46" t="n">
-        <v>117.0297312459068</v>
+        <v>117.0297312459069</v>
       </c>
       <c r="D46" t="n">
-        <v>98.39838316549131</v>
+        <v>98.3983831654914</v>
       </c>
       <c r="E46" t="n">
-        <v>96.21687279384813</v>
+        <v>96.21687279384821</v>
       </c>
       <c r="F46" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021029</v>
       </c>
       <c r="G46" t="n">
-        <v>115.8803955994311</v>
+        <v>115.8803955994312</v>
       </c>
       <c r="H46" t="n">
-        <v>95.17520046955624</v>
+        <v>95.1752004695546</v>
       </c>
       <c r="I46" t="n">
-        <v>48.29085923760799</v>
+        <v>48.29085923760807</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.93793006451833</v>
+        <v>41.93793006451747</v>
       </c>
       <c r="S46" t="n">
-        <v>140.8010734716172</v>
+        <v>140.8010734716173</v>
       </c>
       <c r="T46" t="n">
-        <v>169.6381165213414</v>
+        <v>169.6381165213415</v>
       </c>
       <c r="U46" t="n">
-        <v>235.9986580179713</v>
+        <v>235.9986580179714</v>
       </c>
       <c r="V46" t="n">
         <v>201.920553471107</v>
@@ -4198,10 +4198,10 @@
         <v>236.30590848387</v>
       </c>
       <c r="X46" t="n">
-        <v>175.4925655363161</v>
+        <v>175.4925655363162</v>
       </c>
       <c r="Y46" t="n">
-        <v>168.3675634993737</v>
+        <v>168.3675634993738</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C2" t="n">
         <v>23.62703037176281</v>
@@ -4337,43 +4337,43 @@
         <v>30.9115297805728</v>
       </c>
       <c r="M2" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N2" t="n">
         <v>46.0612399205565</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P2" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>45.75363943919166</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S2" t="n">
-        <v>45.75363943919166</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="T2" t="n">
-        <v>45.75363943919166</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="U2" t="n">
-        <v>45.75363943919166</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="V2" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="W2" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="X2" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C3" t="n">
         <v>1.224219001210804</v>
@@ -4413,16 +4413,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L3" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M3" t="n">
-        <v>30.9115297805728</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N3" t="n">
-        <v>30.9115297805728</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="O3" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="P3" t="n">
         <v>46.0612399205565</v>
@@ -4431,28 +4431,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R3" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="S3" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="T3" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="U3" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="V3" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="W3" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="X3" t="n">
         <v>45.75363943919166</v>
       </c>
-      <c r="S3" t="n">
-        <v>45.75363943919166</v>
-      </c>
-      <c r="T3" t="n">
-        <v>45.75363943919166</v>
-      </c>
-      <c r="U3" t="n">
-        <v>45.75363943919166</v>
-      </c>
-      <c r="V3" t="n">
-        <v>45.75363943919166</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>30.29632881784312</v>
-      </c>
-      <c r="X3" t="n">
-        <v>30.29632881784312</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E4" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F4" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G4" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H4" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I4" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J4" t="n">
         <v>1.224219001210804</v>
@@ -4507,31 +4507,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="R4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="S4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V4" t="n">
-        <v>47.59615086525642</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C5" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D5" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E5" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F5" t="n">
-        <v>44.20882949099123</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G5" t="n">
-        <v>28.75151886964269</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H5" t="n">
-        <v>28.75151886964269</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>15.7618196405891</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L5" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M5" t="n">
         <v>30.9115297805728</v>
@@ -4601,16 +4601,16 @@
         <v>61.2109500605402</v>
       </c>
       <c r="V5" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W5" t="n">
-        <v>61.2109500605402</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="X5" t="n">
-        <v>61.2109500605402</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="Y5" t="n">
-        <v>61.2109500605402</v>
+        <v>39.08434099311135</v>
       </c>
     </row>
     <row r="6">
@@ -4623,10 +4623,10 @@
         <v>14.83901819649459</v>
       </c>
       <c r="C6" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="D6" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="E6" t="n">
         <v>1.224219001210804</v>
@@ -4647,19 +4647,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L6" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M6" t="n">
-        <v>15.7618196405891</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N6" t="n">
-        <v>15.7618196405891</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O6" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P6" t="n">
         <v>46.0612399205565</v>
@@ -4671,13 +4671,13 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T6" t="n">
         <v>45.75363943919166</v>
       </c>
       <c r="U6" t="n">
-        <v>30.29632881784312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V6" t="n">
         <v>30.29632881784312</v>
@@ -4686,10 +4686,10 @@
         <v>30.29632881784312</v>
       </c>
       <c r="X6" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E7" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F7" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G7" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H7" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I7" t="n">
         <v>1.224219001210804</v>
@@ -4732,10 +4732,10 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M7" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N7" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O7" t="n">
         <v>61.2109500605402</v>
@@ -4747,28 +4747,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R7" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S7" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T7" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U7" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V7" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W7" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="8">
@@ -4805,16 +4805,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M8" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N8" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O8" t="n">
         <v>61.2109500605402</v>
@@ -4829,25 +4829,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W8" t="n">
         <v>45.75363943919166</v>
       </c>
       <c r="X8" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y8" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
         <v>1.224219001210804</v>
@@ -4893,40 +4893,40 @@
         <v>16.37392914119451</v>
       </c>
       <c r="N9" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O9" t="n">
-        <v>31.52363928117821</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P9" t="n">
-        <v>46.6733494211619</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T9" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U9" t="n">
-        <v>47.59615086525642</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V9" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C10" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
         <v>1.224219001210804</v>
@@ -4969,10 +4969,10 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
@@ -4984,28 +4984,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S10" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T10" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U10" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V10" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W10" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X10" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2014.464892345594</v>
+        <v>2014.464892345595</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.226708589749</v>
+        <v>1696.22670858975</v>
       </c>
       <c r="D11" t="n">
-        <v>1388.685343167565</v>
+        <v>1388.685343167566</v>
       </c>
       <c r="E11" t="n">
         <v>1053.621423753888</v>
       </c>
       <c r="F11" t="n">
-        <v>693.3598521488475</v>
+        <v>693.3598521488476</v>
       </c>
       <c r="G11" t="n">
         <v>328.8503291111392</v>
@@ -5039,25 +5039,25 @@
         <v>80.33806201802837</v>
       </c>
       <c r="J11" t="n">
-        <v>255.7906676251869</v>
+        <v>423.19631664554</v>
       </c>
       <c r="K11" t="n">
-        <v>569.4871602802313</v>
+        <v>909.1267878165258</v>
       </c>
       <c r="L11" t="n">
-        <v>1409.041762623054</v>
+        <v>1335.196787754403</v>
       </c>
       <c r="M11" t="n">
-        <v>1914.796169898068</v>
+        <v>1840.951195029417</v>
       </c>
       <c r="N11" t="n">
-        <v>2433.348020611579</v>
+        <v>2359.503045742928</v>
       </c>
       <c r="O11" t="n">
-        <v>3046.013433478261</v>
+        <v>2835.821592724955</v>
       </c>
       <c r="P11" t="n">
-        <v>3736.620013539175</v>
+        <v>3526.42817278587</v>
       </c>
       <c r="Q11" t="n">
         <v>3967.823193632784</v>
@@ -5081,10 +5081,10 @@
         <v>3012.496823092908</v>
       </c>
       <c r="X11" t="n">
-        <v>2689.755398016394</v>
+        <v>2689.755398016395</v>
       </c>
       <c r="Y11" t="n">
-        <v>2350.340399225149</v>
+        <v>2350.34039922515</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>738.9353032735602</v>
       </c>
       <c r="M12" t="n">
-        <v>1290.852545340072</v>
+        <v>1164.765453927227</v>
       </c>
       <c r="N12" t="n">
-        <v>1742.361797900129</v>
+        <v>1616.274706487284</v>
       </c>
       <c r="O12" t="n">
-        <v>2133.184759301471</v>
+        <v>2007.097667888625</v>
       </c>
       <c r="P12" t="n">
-        <v>2427.521575143683</v>
+        <v>2301.434483730838</v>
       </c>
       <c r="Q12" t="n">
         <v>2574.358745311557</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>753.262709171617</v>
+        <v>753.2627091716172</v>
       </c>
       <c r="C13" t="n">
-        <v>635.0508594282768</v>
+        <v>635.050859428277</v>
       </c>
       <c r="D13" t="n">
-        <v>535.6585532005078</v>
+        <v>535.6585532005081</v>
       </c>
       <c r="E13" t="n">
-        <v>438.4697928026814</v>
+        <v>438.4697928026817</v>
       </c>
       <c r="F13" t="n">
-        <v>342.3041784893377</v>
+        <v>342.3041784893381</v>
       </c>
       <c r="G13" t="n">
-        <v>225.2532738434477</v>
+        <v>225.2532738434467</v>
       </c>
       <c r="H13" t="n">
-        <v>129.1167077125828</v>
+        <v>129.1167077125819</v>
       </c>
       <c r="I13" t="n">
         <v>80.33806201802837</v>
       </c>
       <c r="J13" t="n">
-        <v>170.1587116408336</v>
+        <v>170.1587116408337</v>
       </c>
       <c r="K13" t="n">
-        <v>415.6165027907879</v>
+        <v>415.616502790788</v>
       </c>
       <c r="L13" t="n">
         <v>771.3413408463373</v>
@@ -5239,10 +5239,10 @@
         <v>1231.520304489704</v>
       </c>
       <c r="X13" t="n">
-        <v>1054.255086776253</v>
+        <v>1054.255086776254</v>
       </c>
       <c r="Y13" t="n">
-        <v>884.18684081729</v>
+        <v>884.1868408172902</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1053.621423753888</v>
       </c>
       <c r="F14" t="n">
-        <v>693.3598521488472</v>
+        <v>693.3598521488468</v>
       </c>
       <c r="G14" t="n">
-        <v>328.8503291111389</v>
+        <v>328.8503291111392</v>
       </c>
       <c r="H14" t="n">
         <v>80.33806201802837</v>
@@ -5276,25 +5276,25 @@
         <v>80.33806201802837</v>
       </c>
       <c r="J14" t="n">
-        <v>255.7906676251869</v>
+        <v>423.19631664554</v>
       </c>
       <c r="K14" t="n">
-        <v>569.4871602802313</v>
+        <v>794.7340537384298</v>
       </c>
       <c r="L14" t="n">
-        <v>995.5571602181084</v>
+        <v>1220.804053676307</v>
       </c>
       <c r="M14" t="n">
-        <v>1936.750301704627</v>
+        <v>1726.558460951321</v>
       </c>
       <c r="N14" t="n">
-        <v>2888.275607586002</v>
+        <v>2678.083766832696</v>
       </c>
       <c r="O14" t="n">
-        <v>3364.594154568028</v>
+        <v>3154.402313814723</v>
       </c>
       <c r="P14" t="n">
-        <v>3736.620013539175</v>
+        <v>3526.42817278587</v>
       </c>
       <c r="Q14" t="n">
         <v>3967.823193632784</v>
@@ -5361,7 +5361,7 @@
         <v>390.6150704668838</v>
       </c>
       <c r="L15" t="n">
-        <v>738.9353032735602</v>
+        <v>865.0223946864055</v>
       </c>
       <c r="M15" t="n">
         <v>1290.852545340072</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>753.2627091716161</v>
+        <v>753.2627091716162</v>
       </c>
       <c r="C16" t="n">
-        <v>635.0508594282759</v>
+        <v>635.050859428276</v>
       </c>
       <c r="D16" t="n">
-        <v>535.6585532005068</v>
+        <v>535.658553200507</v>
       </c>
       <c r="E16" t="n">
-        <v>438.4697928026804</v>
+        <v>438.4697928026806</v>
       </c>
       <c r="F16" t="n">
-        <v>342.3041784893368</v>
+        <v>342.304178489337</v>
       </c>
       <c r="G16" t="n">
-        <v>225.2532738434468</v>
+        <v>225.253273843447</v>
       </c>
       <c r="H16" t="n">
-        <v>129.1167077125819</v>
+        <v>129.1167077125821</v>
       </c>
       <c r="I16" t="n">
         <v>80.33806201802837</v>
@@ -5437,10 +5437,10 @@
         <v>170.1587116408336</v>
       </c>
       <c r="K16" t="n">
-        <v>415.6165027907879</v>
+        <v>415.6165027907875</v>
       </c>
       <c r="L16" t="n">
-        <v>771.3413408463373</v>
+        <v>771.3413408463368</v>
       </c>
       <c r="M16" t="n">
         <v>1154.089936830755</v>
@@ -5449,7 +5449,7 @@
         <v>1534.354352764115</v>
       </c>
       <c r="O16" t="n">
-        <v>1873.368937650502</v>
+        <v>1873.368937650503</v>
       </c>
       <c r="P16" t="n">
         <v>2147.109016642467</v>
@@ -5458,10 +5458,10 @@
         <v>2268.492264116394</v>
       </c>
       <c r="R16" t="n">
-        <v>2226.130718596679</v>
+        <v>2226.13071859668</v>
       </c>
       <c r="S16" t="n">
-        <v>2083.907412059692</v>
+        <v>2083.907412059693</v>
       </c>
       <c r="T16" t="n">
         <v>1912.555779209853</v>
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2014.464892345594</v>
+        <v>2014.464892345593</v>
       </c>
       <c r="C17" t="n">
-        <v>1696.226708589749</v>
+        <v>1696.226708589748</v>
       </c>
       <c r="D17" t="n">
-        <v>1388.685343167565</v>
+        <v>1388.685343167564</v>
       </c>
       <c r="E17" t="n">
-        <v>1053.621423753888</v>
+        <v>1053.621423753887</v>
       </c>
       <c r="F17" t="n">
-        <v>693.3598521488472</v>
+        <v>693.3598521488466</v>
       </c>
       <c r="G17" t="n">
-        <v>328.8503291111389</v>
+        <v>328.8503291111392</v>
       </c>
       <c r="H17" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="I17" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J17" t="n">
-        <v>255.7906676251869</v>
+        <v>423.19631664554</v>
       </c>
       <c r="K17" t="n">
-        <v>569.4871602802313</v>
+        <v>1057.796767746037</v>
       </c>
       <c r="L17" t="n">
-        <v>1409.041762623054</v>
+        <v>1483.866767683915</v>
       </c>
       <c r="M17" t="n">
-        <v>1914.796169898068</v>
+        <v>2369.723756872491</v>
       </c>
       <c r="N17" t="n">
-        <v>2433.348020611579</v>
+        <v>2888.275607586002</v>
       </c>
       <c r="O17" t="n">
-        <v>3286.658747043723</v>
+        <v>3364.594154568029</v>
       </c>
       <c r="P17" t="n">
-        <v>3671.560757864923</v>
+        <v>3736.620013539176</v>
       </c>
       <c r="Q17" t="n">
-        <v>3902.763937958532</v>
+        <v>3967.823193632785</v>
       </c>
       <c r="R17" t="n">
-        <v>4016.903100901418</v>
+        <v>4016.903100901419</v>
       </c>
       <c r="S17" t="n">
         <v>3953.65872485513</v>
@@ -5549,16 +5549,16 @@
         <v>3594.879699337459</v>
       </c>
       <c r="V17" t="n">
-        <v>3314.541145178455</v>
+        <v>3314.541145178454</v>
       </c>
       <c r="W17" t="n">
-        <v>3012.496823092908</v>
+        <v>3012.496823092907</v>
       </c>
       <c r="X17" t="n">
-        <v>2689.755398016394</v>
+        <v>2689.755398016393</v>
       </c>
       <c r="Y17" t="n">
-        <v>2350.340399225149</v>
+        <v>2350.340399225148</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>183.4266297993771</v>
       </c>
       <c r="H18" t="n">
-        <v>92.09068100485952</v>
+        <v>92.09068100485953</v>
       </c>
       <c r="I18" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J18" t="n">
-        <v>166.0185849899807</v>
+        <v>290.8487099769854</v>
       </c>
       <c r="K18" t="n">
-        <v>390.6150704668838</v>
+        <v>516.7021618797291</v>
       </c>
       <c r="L18" t="n">
-        <v>738.9353032735602</v>
+        <v>865.0223946864055</v>
       </c>
       <c r="M18" t="n">
-        <v>1164.765453927227</v>
+        <v>1290.852545340072</v>
       </c>
       <c r="N18" t="n">
-        <v>1616.274706487284</v>
+        <v>1742.361797900129</v>
       </c>
       <c r="O18" t="n">
-        <v>2007.097667888625</v>
+        <v>2133.184759301471</v>
       </c>
       <c r="P18" t="n">
-        <v>2301.434483730838</v>
+        <v>2427.521575143683</v>
       </c>
       <c r="Q18" t="n">
         <v>2574.358745311557</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>753.2627091716155</v>
+        <v>753.2627091716158</v>
       </c>
       <c r="C19" t="n">
-        <v>635.0508594282753</v>
+        <v>635.0508594282755</v>
       </c>
       <c r="D19" t="n">
-        <v>535.6585532005063</v>
+        <v>535.6585532005065</v>
       </c>
       <c r="E19" t="n">
-        <v>438.4697928026799</v>
+        <v>438.4697928026806</v>
       </c>
       <c r="F19" t="n">
-        <v>342.3041784893364</v>
+        <v>342.3041784893369</v>
       </c>
       <c r="G19" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434469</v>
       </c>
       <c r="H19" t="n">
         <v>129.1167077125819</v>
       </c>
       <c r="I19" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J19" t="n">
         <v>170.1587116408336</v>
       </c>
       <c r="K19" t="n">
-        <v>415.6165027907878</v>
+        <v>415.6165027907879</v>
       </c>
       <c r="L19" t="n">
-        <v>771.3413408463372</v>
+        <v>771.3413408463371</v>
       </c>
       <c r="M19" t="n">
         <v>1154.089936830755</v>
@@ -5695,10 +5695,10 @@
         <v>2268.492264116394</v>
       </c>
       <c r="R19" t="n">
-        <v>2226.130718596679</v>
+        <v>2226.13071859668</v>
       </c>
       <c r="S19" t="n">
-        <v>2083.907412059692</v>
+        <v>2083.907412059693</v>
       </c>
       <c r="T19" t="n">
         <v>1912.555779209853</v>
@@ -5716,7 +5716,7 @@
         <v>1054.255086776252</v>
       </c>
       <c r="Y19" t="n">
-        <v>884.1868408172885</v>
+        <v>884.1868408172888</v>
       </c>
     </row>
     <row r="20">
@@ -5726,61 +5726,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2014.464892345594</v>
+        <v>2014.464892345595</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.226708589749</v>
+        <v>1696.22670858975</v>
       </c>
       <c r="D20" t="n">
-        <v>1388.685343167565</v>
+        <v>1388.685343167566</v>
       </c>
       <c r="E20" t="n">
         <v>1053.621423753888</v>
       </c>
       <c r="F20" t="n">
-        <v>693.359852148847</v>
+        <v>693.3598521488475</v>
       </c>
       <c r="G20" t="n">
         <v>328.8503291111392</v>
       </c>
       <c r="H20" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="I20" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J20" t="n">
-        <v>423.19631664554</v>
+        <v>255.790667625187</v>
       </c>
       <c r="K20" t="n">
-        <v>736.8928093005843</v>
+        <v>742.3264491197142</v>
       </c>
       <c r="L20" t="n">
-        <v>1162.962809238461</v>
+        <v>1168.396449057591</v>
       </c>
       <c r="M20" t="n">
-        <v>1668.717216513476</v>
+        <v>1674.150856332606</v>
       </c>
       <c r="N20" t="n">
-        <v>2187.269067226986</v>
+        <v>2192.702707046117</v>
       </c>
       <c r="O20" t="n">
-        <v>2770.762337050703</v>
+        <v>3046.013433478261</v>
       </c>
       <c r="P20" t="n">
-        <v>3461.368917111618</v>
+        <v>3736.620013539176</v>
       </c>
       <c r="Q20" t="n">
-        <v>3902.763937958532</v>
+        <v>3967.823193632785</v>
       </c>
       <c r="R20" t="n">
-        <v>4016.903100901418</v>
+        <v>4016.903100901419</v>
       </c>
       <c r="S20" t="n">
         <v>3953.65872485513</v>
       </c>
       <c r="T20" t="n">
-        <v>3797.698755364437</v>
+        <v>3797.698755364438</v>
       </c>
       <c r="U20" t="n">
         <v>3594.879699337459</v>
@@ -5789,13 +5789,13 @@
         <v>3314.541145178455</v>
       </c>
       <c r="W20" t="n">
-        <v>3012.496823092907</v>
+        <v>3012.496823092908</v>
       </c>
       <c r="X20" t="n">
-        <v>2689.755398016394</v>
+        <v>2689.755398016395</v>
       </c>
       <c r="Y20" t="n">
-        <v>2350.340399225149</v>
+        <v>2350.34039922515</v>
       </c>
     </row>
     <row r="21">
@@ -5823,22 +5823,22 @@
         <v>183.4266297993771</v>
       </c>
       <c r="H21" t="n">
-        <v>92.09068100485952</v>
+        <v>92.09068100485953</v>
       </c>
       <c r="I21" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J21" t="n">
-        <v>166.0185849899807</v>
+        <v>166.0185849899808</v>
       </c>
       <c r="K21" t="n">
-        <v>390.6150704668838</v>
+        <v>390.6150704668839</v>
       </c>
       <c r="L21" t="n">
-        <v>738.9353032735602</v>
+        <v>738.9353032735603</v>
       </c>
       <c r="M21" t="n">
-        <v>1164.765453927227</v>
+        <v>1290.852545340072</v>
       </c>
       <c r="N21" t="n">
         <v>1742.361797900129</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>753.2627091716161</v>
+        <v>753.2627091716163</v>
       </c>
       <c r="C22" t="n">
-        <v>635.0508594282759</v>
+        <v>635.050859428276</v>
       </c>
       <c r="D22" t="n">
-        <v>535.6585532005068</v>
+        <v>535.658553200507</v>
       </c>
       <c r="E22" t="n">
-        <v>438.4697928026804</v>
+        <v>438.4697928026806</v>
       </c>
       <c r="F22" t="n">
-        <v>342.3041784893368</v>
+        <v>342.3041784893369</v>
       </c>
       <c r="G22" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434469</v>
       </c>
       <c r="H22" t="n">
         <v>129.1167077125819</v>
       </c>
       <c r="I22" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J22" t="n">
         <v>170.1587116408336</v>
@@ -5914,7 +5914,7 @@
         <v>415.6165027907879</v>
       </c>
       <c r="L22" t="n">
-        <v>771.3413408463373</v>
+        <v>771.3413408463371</v>
       </c>
       <c r="M22" t="n">
         <v>1154.089936830755</v>
@@ -5926,34 +5926,34 @@
         <v>1873.368937650503</v>
       </c>
       <c r="P22" t="n">
-        <v>2147.109016642468</v>
+        <v>2147.109016642467</v>
       </c>
       <c r="Q22" t="n">
         <v>2268.492264116395</v>
       </c>
       <c r="R22" t="n">
-        <v>2226.130718596679</v>
+        <v>2226.13071859668</v>
       </c>
       <c r="S22" t="n">
-        <v>2083.907412059692</v>
+        <v>2083.907412059693</v>
       </c>
       <c r="T22" t="n">
         <v>1912.555779209853</v>
       </c>
       <c r="U22" t="n">
-        <v>1674.173296363417</v>
+        <v>1674.173296363418</v>
       </c>
       <c r="V22" t="n">
-        <v>1470.213141342097</v>
+        <v>1470.213141342098</v>
       </c>
       <c r="W22" t="n">
         <v>1231.520304489703</v>
       </c>
       <c r="X22" t="n">
-        <v>1054.255086776252</v>
+        <v>1054.255086776253</v>
       </c>
       <c r="Y22" t="n">
-        <v>884.1868408172891</v>
+        <v>884.1868408172893</v>
       </c>
     </row>
     <row r="23">
@@ -5981,43 +5981,43 @@
         <v>328.8503291111392</v>
       </c>
       <c r="H23" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="I23" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J23" t="n">
-        <v>255.7906676251869</v>
+        <v>314.2372223865738</v>
       </c>
       <c r="K23" t="n">
-        <v>890.3911187256842</v>
+        <v>627.9337150416181</v>
       </c>
       <c r="L23" t="n">
-        <v>1316.461118663561</v>
+        <v>1054.003714979495</v>
       </c>
       <c r="M23" t="n">
-        <v>1822.215525938576</v>
+        <v>1559.75812225451</v>
       </c>
       <c r="N23" t="n">
-        <v>2340.767376652087</v>
+        <v>2511.283428135885</v>
       </c>
       <c r="O23" t="n">
-        <v>3194.078103084231</v>
+        <v>3364.594154568029</v>
       </c>
       <c r="P23" t="n">
-        <v>3736.620013539175</v>
+        <v>3736.620013539176</v>
       </c>
       <c r="Q23" t="n">
-        <v>3967.823193632784</v>
+        <v>3967.823193632785</v>
       </c>
       <c r="R23" t="n">
-        <v>4016.903100901418</v>
+        <v>4016.903100901419</v>
       </c>
       <c r="S23" t="n">
         <v>3953.65872485513</v>
       </c>
       <c r="T23" t="n">
-        <v>3797.698755364437</v>
+        <v>3797.698755364438</v>
       </c>
       <c r="U23" t="n">
         <v>3594.879699337459</v>
@@ -6060,34 +6060,34 @@
         <v>183.4266297993771</v>
       </c>
       <c r="H24" t="n">
-        <v>92.09068100485952</v>
+        <v>92.09068100485953</v>
       </c>
       <c r="I24" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J24" t="n">
-        <v>290.8487099769854</v>
+        <v>166.0185849899808</v>
       </c>
       <c r="K24" t="n">
-        <v>515.4451954538886</v>
+        <v>390.6150704668839</v>
       </c>
       <c r="L24" t="n">
-        <v>863.7654282605649</v>
+        <v>738.9353032735603</v>
       </c>
       <c r="M24" t="n">
-        <v>1289.595578914232</v>
+        <v>1164.765453927227</v>
       </c>
       <c r="N24" t="n">
-        <v>1741.104831474289</v>
+        <v>1616.274706487284</v>
       </c>
       <c r="O24" t="n">
-        <v>2131.92779287563</v>
+        <v>2007.097667888625</v>
       </c>
       <c r="P24" t="n">
-        <v>2426.264608717842</v>
+        <v>2301.434483730838</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.101778885717</v>
+        <v>2574.358745311557</v>
       </c>
       <c r="R24" t="n">
         <v>2574.358745311557</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>753.2627091716172</v>
+        <v>753.2627091716163</v>
       </c>
       <c r="C25" t="n">
-        <v>635.050859428277</v>
+        <v>635.050859428276</v>
       </c>
       <c r="D25" t="n">
-        <v>535.6585532005081</v>
+        <v>535.658553200507</v>
       </c>
       <c r="E25" t="n">
-        <v>438.4697928026817</v>
+        <v>438.4697928026806</v>
       </c>
       <c r="F25" t="n">
-        <v>342.3041784893381</v>
+        <v>342.3041784893369</v>
       </c>
       <c r="G25" t="n">
-        <v>225.2532738434481</v>
+        <v>225.2532738434469</v>
       </c>
       <c r="H25" t="n">
-        <v>129.1167077125832</v>
+        <v>129.1167077125819</v>
       </c>
       <c r="I25" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J25" t="n">
-        <v>170.1587116408337</v>
+        <v>170.1587116408336</v>
       </c>
       <c r="K25" t="n">
         <v>415.616502790788</v>
@@ -6163,34 +6163,34 @@
         <v>1873.368937650503</v>
       </c>
       <c r="P25" t="n">
-        <v>2147.109016642468</v>
+        <v>2147.109016642467</v>
       </c>
       <c r="Q25" t="n">
-        <v>2268.492264116395</v>
+        <v>2268.492264116394</v>
       </c>
       <c r="R25" t="n">
-        <v>2226.13071859668</v>
+        <v>2226.130718596679</v>
       </c>
       <c r="S25" t="n">
-        <v>2083.907412059693</v>
+        <v>2083.907412059692</v>
       </c>
       <c r="T25" t="n">
-        <v>1912.555779209854</v>
+        <v>1912.555779209853</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.173296363418</v>
+        <v>1674.173296363417</v>
       </c>
       <c r="V25" t="n">
-        <v>1470.213141342098</v>
+        <v>1470.213141342097</v>
       </c>
       <c r="W25" t="n">
-        <v>1231.520304489704</v>
+        <v>1231.520304489703</v>
       </c>
       <c r="X25" t="n">
-        <v>1054.255086776254</v>
+        <v>1054.255086776253</v>
       </c>
       <c r="Y25" t="n">
-        <v>884.1868408172902</v>
+        <v>884.1868408172893</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>95.81480019666006</v>
       </c>
       <c r="J26" t="n">
-        <v>438.6730548241717</v>
+        <v>271.2674058038186</v>
       </c>
       <c r="K26" t="n">
-        <v>752.369547479216</v>
+        <v>584.963898458863</v>
       </c>
       <c r="L26" t="n">
-        <v>1484.563308775735</v>
+        <v>1011.03389839674</v>
       </c>
       <c r="M26" t="n">
-        <v>2435.336114208654</v>
+        <v>1961.806703829659</v>
       </c>
       <c r="N26" t="n">
-        <v>3386.861420090029</v>
+        <v>2756.347775224395</v>
       </c>
       <c r="O26" t="n">
-        <v>3863.179967072055</v>
+        <v>3609.65850165654</v>
       </c>
       <c r="P26" t="n">
-        <v>4235.205826043202</v>
+        <v>4300.265081717454</v>
       </c>
       <c r="Q26" t="n">
-        <v>4676.600846890116</v>
+        <v>4741.660102564369</v>
       </c>
       <c r="R26" t="n">
         <v>4790.740009833003</v>
@@ -6315,16 +6315,16 @@
         <v>1180.242192105859</v>
       </c>
       <c r="N27" t="n">
-        <v>1718.168748908894</v>
+        <v>1631.751444665916</v>
       </c>
       <c r="O27" t="n">
-        <v>2108.991710310236</v>
+        <v>2022.574406067257</v>
       </c>
       <c r="P27" t="n">
-        <v>2403.328526152448</v>
+        <v>2316.91122190947</v>
       </c>
       <c r="Q27" t="n">
-        <v>2550.165696320322</v>
+        <v>2589.835483490189</v>
       </c>
       <c r="R27" t="n">
         <v>2589.835483490189</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>832.2485972440953</v>
+        <v>324.1391127838541</v>
       </c>
       <c r="C28" t="n">
-        <v>663.3124143161884</v>
+        <v>155.2029298559472</v>
       </c>
       <c r="D28" t="n">
-        <v>537.4787405923952</v>
+        <v>155.2029298559472</v>
       </c>
       <c r="E28" t="n">
-        <v>389.5656470100021</v>
+        <v>155.2029298559472</v>
       </c>
       <c r="F28" t="n">
-        <v>242.6756995120917</v>
+        <v>155.2029298559472</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6756995120917</v>
+        <v>155.2029298559472</v>
       </c>
       <c r="H28" t="n">
-        <v>95.81480019666006</v>
+        <v>155.2029298559472</v>
       </c>
       <c r="I28" t="n">
         <v>95.81480019666006</v>
@@ -6406,28 +6406,28 @@
         <v>1886.249650661475</v>
       </c>
       <c r="R28" t="n">
-        <v>1886.249650661475</v>
+        <v>1793.163771957194</v>
       </c>
       <c r="S28" t="n">
-        <v>1886.249650661475</v>
+        <v>1600.216132235641</v>
       </c>
       <c r="T28" t="n">
-        <v>1886.249650661475</v>
+        <v>1378.140166201234</v>
       </c>
       <c r="U28" t="n">
-        <v>1597.142834630473</v>
+        <v>1089.033350170232</v>
       </c>
       <c r="V28" t="n">
-        <v>1342.458346424586</v>
+        <v>834.3488619643448</v>
       </c>
       <c r="W28" t="n">
-        <v>1053.041176387625</v>
+        <v>544.9316919273842</v>
       </c>
       <c r="X28" t="n">
-        <v>1053.041176387625</v>
+        <v>544.9316919273842</v>
       </c>
       <c r="Y28" t="n">
-        <v>832.2485972440953</v>
+        <v>324.1391127838541</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2382.507135800645</v>
+        <v>2382.507135800644</v>
       </c>
       <c r="C29" t="n">
         <v>2013.544618860233</v>
       </c>
       <c r="D29" t="n">
-        <v>1655.278920253483</v>
+        <v>1655.278920253482</v>
       </c>
       <c r="E29" t="n">
         <v>1269.490667655238</v>
@@ -6467,31 +6467,31 @@
         <v>584.963898458863</v>
       </c>
       <c r="L29" t="n">
-        <v>1424.518500801686</v>
+        <v>1234.008806393754</v>
       </c>
       <c r="M29" t="n">
-        <v>2375.291306234605</v>
+        <v>1739.763213668768</v>
       </c>
       <c r="N29" t="n">
-        <v>2893.843156948115</v>
+        <v>2691.288519550143</v>
       </c>
       <c r="O29" t="n">
-        <v>3747.15388338026</v>
+        <v>3544.599245982287</v>
       </c>
       <c r="P29" t="n">
-        <v>4300.265081717454</v>
+        <v>4235.205826043202</v>
       </c>
       <c r="Q29" t="n">
-        <v>4741.660102564369</v>
+        <v>4676.600846890116</v>
       </c>
       <c r="R29" t="n">
         <v>4790.740009833003</v>
       </c>
       <c r="S29" t="n">
-        <v>4676.771300602147</v>
+        <v>4676.771300602148</v>
       </c>
       <c r="T29" t="n">
-        <v>4470.086997926887</v>
+        <v>4470.086997926888</v>
       </c>
       <c r="U29" t="n">
         <v>4216.543608715343</v>
@@ -6506,7 +6506,7 @@
         <v>3159.246307840578</v>
       </c>
       <c r="Y29" t="n">
-        <v>2769.106975864767</v>
+        <v>2769.106975864766</v>
       </c>
     </row>
     <row r="30">
@@ -6555,7 +6555,7 @@
         <v>1631.751444665916</v>
       </c>
       <c r="O30" t="n">
-        <v>2148.661497480102</v>
+        <v>2022.574406067257</v>
       </c>
       <c r="P30" t="n">
         <v>2442.998313322315</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.3475120705092</v>
+        <v>264.750983124567</v>
       </c>
       <c r="C31" t="n">
-        <v>493.3475120705092</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="D31" t="n">
-        <v>343.2308726581734</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="E31" t="n">
-        <v>195.3177790757803</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="F31" t="n">
-        <v>195.3177790757803</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="G31" t="n">
-        <v>195.3177790757803</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="H31" t="n">
-        <v>195.3177790757803</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="I31" t="n">
         <v>95.81480019666006</v>
@@ -6643,28 +6643,28 @@
         <v>1886.249650661475</v>
       </c>
       <c r="R31" t="n">
-        <v>1886.249650661475</v>
+        <v>1793.163771957194</v>
       </c>
       <c r="S31" t="n">
-        <v>1886.249650661475</v>
+        <v>1600.216132235641</v>
       </c>
       <c r="T31" t="n">
-        <v>1667.879765185144</v>
+        <v>1378.140166201234</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.879765185144</v>
+        <v>1089.033350170232</v>
       </c>
       <c r="V31" t="n">
-        <v>1413.195276979257</v>
+        <v>834.3488619643448</v>
       </c>
       <c r="W31" t="n">
-        <v>1123.778106942296</v>
+        <v>544.9316919273842</v>
       </c>
       <c r="X31" t="n">
-        <v>895.7885560442791</v>
+        <v>446.3994479548066</v>
       </c>
       <c r="Y31" t="n">
-        <v>674.9959769007489</v>
+        <v>446.3994479548066</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2382.507135800645</v>
+        <v>2382.507135800643</v>
       </c>
       <c r="C32" t="n">
-        <v>2013.544618860233</v>
+        <v>2013.544618860232</v>
       </c>
       <c r="D32" t="n">
-        <v>1655.278920253483</v>
+        <v>1655.278920253481</v>
       </c>
       <c r="E32" t="n">
-        <v>1269.490667655238</v>
+        <v>1269.490667655237</v>
       </c>
       <c r="F32" t="n">
-        <v>858.5047628656309</v>
+        <v>858.5047628656298</v>
       </c>
       <c r="G32" t="n">
-        <v>443.2709066433558</v>
+        <v>443.2709066433551</v>
       </c>
       <c r="H32" t="n">
         <v>144.0343063656777</v>
@@ -6698,52 +6698,52 @@
         <v>95.81480019666006</v>
       </c>
       <c r="J32" t="n">
-        <v>438.6730548241717</v>
+        <v>271.2674058038186</v>
       </c>
       <c r="K32" t="n">
-        <v>1073.273505924669</v>
+        <v>905.867856904316</v>
       </c>
       <c r="L32" t="n">
-        <v>1912.828108267492</v>
+        <v>1331.937856842193</v>
       </c>
       <c r="M32" t="n">
-        <v>2418.582515542506</v>
+        <v>2116.755393118886</v>
       </c>
       <c r="N32" t="n">
-        <v>2937.134366256018</v>
+        <v>3068.280699000261</v>
       </c>
       <c r="O32" t="n">
-        <v>3790.445092688162</v>
+        <v>3544.599245982287</v>
       </c>
       <c r="P32" t="n">
-        <v>4300.265081717454</v>
+        <v>4235.205826043202</v>
       </c>
       <c r="Q32" t="n">
-        <v>4741.660102564369</v>
+        <v>4676.600846890116</v>
       </c>
       <c r="R32" t="n">
         <v>4790.740009833003</v>
       </c>
       <c r="S32" t="n">
-        <v>4676.771300602147</v>
+        <v>4676.771300602148</v>
       </c>
       <c r="T32" t="n">
         <v>4470.086997926888</v>
       </c>
       <c r="U32" t="n">
-        <v>4216.543608715343</v>
+        <v>4216.543608715342</v>
       </c>
       <c r="V32" t="n">
-        <v>3885.480721371773</v>
+        <v>3885.480721371771</v>
       </c>
       <c r="W32" t="n">
-        <v>3532.712066101658</v>
+        <v>3532.712066101657</v>
       </c>
       <c r="X32" t="n">
-        <v>3159.246307840579</v>
+        <v>3159.246307840577</v>
       </c>
       <c r="Y32" t="n">
-        <v>2769.106975864767</v>
+        <v>2769.106975864765</v>
       </c>
     </row>
     <row r="33">
@@ -6777,13 +6777,13 @@
         <v>95.81480019666006</v>
       </c>
       <c r="J33" t="n">
-        <v>306.3254481556172</v>
+        <v>181.4953231686124</v>
       </c>
       <c r="K33" t="n">
-        <v>530.9219336325202</v>
+        <v>406.0918086455155</v>
       </c>
       <c r="L33" t="n">
-        <v>879.2421664391966</v>
+        <v>880.4991328650369</v>
       </c>
       <c r="M33" t="n">
         <v>1306.329283518704</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>839.4240979860896</v>
+        <v>245.9314396089958</v>
       </c>
       <c r="C34" t="n">
-        <v>670.4879150581827</v>
+        <v>245.9314396089958</v>
       </c>
       <c r="D34" t="n">
-        <v>537.4787405923952</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="E34" t="n">
-        <v>389.5656470100021</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="F34" t="n">
-        <v>242.6756995120917</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6756995120917</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="H34" t="n">
         <v>95.81480019666006</v>
@@ -6883,25 +6883,25 @@
         <v>1793.163771957194</v>
       </c>
       <c r="S34" t="n">
-        <v>1793.163771957194</v>
+        <v>1600.216132235641</v>
       </c>
       <c r="T34" t="n">
-        <v>1793.163771957194</v>
+        <v>1378.140166201234</v>
       </c>
       <c r="U34" t="n">
-        <v>1793.163771957194</v>
+        <v>1089.033350170232</v>
       </c>
       <c r="V34" t="n">
-        <v>1538.479283751307</v>
+        <v>944.9866253742134</v>
       </c>
       <c r="W34" t="n">
-        <v>1249.062113714347</v>
+        <v>655.5694553372529</v>
       </c>
       <c r="X34" t="n">
-        <v>1021.072562816329</v>
+        <v>427.5799044392355</v>
       </c>
       <c r="Y34" t="n">
-        <v>1021.072562816329</v>
+        <v>427.5799044392355</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2014.464892345594</v>
+        <v>2014.464892345595</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.226708589749</v>
+        <v>1696.22670858975</v>
       </c>
       <c r="D35" t="n">
-        <v>1388.685343167565</v>
+        <v>1388.685343167566</v>
       </c>
       <c r="E35" t="n">
         <v>1053.621423753888</v>
       </c>
       <c r="F35" t="n">
-        <v>693.359852148847</v>
+        <v>693.3598521488475</v>
       </c>
       <c r="G35" t="n">
         <v>328.8503291111392</v>
       </c>
       <c r="H35" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="I35" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J35" t="n">
-        <v>415.9783054091333</v>
+        <v>255.790667625187</v>
       </c>
       <c r="K35" t="n">
-        <v>729.6747980641776</v>
+        <v>890.3911187256844</v>
       </c>
       <c r="L35" t="n">
-        <v>1155.744798002055</v>
+        <v>1316.461118663562</v>
       </c>
       <c r="M35" t="n">
-        <v>1661.499205277069</v>
+        <v>2267.23392409648</v>
       </c>
       <c r="N35" t="n">
-        <v>2613.024511158444</v>
+        <v>2888.275607586003</v>
       </c>
       <c r="O35" t="n">
-        <v>3089.34305814047</v>
+        <v>3364.594154568029</v>
       </c>
       <c r="P35" t="n">
-        <v>3461.368917111618</v>
+        <v>3736.620013539176</v>
       </c>
       <c r="Q35" t="n">
-        <v>3902.763937958532</v>
+        <v>3967.823193632785</v>
       </c>
       <c r="R35" t="n">
-        <v>4016.903100901418</v>
+        <v>4016.903100901419</v>
       </c>
       <c r="S35" t="n">
         <v>3953.65872485513</v>
@@ -6971,16 +6971,16 @@
         <v>3594.879699337459</v>
       </c>
       <c r="V35" t="n">
-        <v>3314.541145178454</v>
+        <v>3314.541145178455</v>
       </c>
       <c r="W35" t="n">
-        <v>3012.496823092907</v>
+        <v>3012.496823092908</v>
       </c>
       <c r="X35" t="n">
-        <v>2689.755398016394</v>
+        <v>2689.755398016395</v>
       </c>
       <c r="Y35" t="n">
-        <v>2350.340399225149</v>
+        <v>2350.34039922515</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>183.4266297993771</v>
       </c>
       <c r="H36" t="n">
-        <v>92.09068100485952</v>
+        <v>92.09068100485953</v>
       </c>
       <c r="I36" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J36" t="n">
-        <v>166.0185849899807</v>
+        <v>166.0185849899808</v>
       </c>
       <c r="K36" t="n">
-        <v>477.0323747098626</v>
+        <v>390.6150704668839</v>
       </c>
       <c r="L36" t="n">
-        <v>825.3526075165389</v>
+        <v>738.9353032735603</v>
       </c>
       <c r="M36" t="n">
-        <v>1251.182758170205</v>
+        <v>1164.765453927227</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.692010730263</v>
+        <v>1616.274706487284</v>
       </c>
       <c r="O36" t="n">
-        <v>2093.514972131604</v>
+        <v>2007.097667888625</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.851787973816</v>
+        <v>2301.434483730838</v>
       </c>
       <c r="Q36" t="n">
-        <v>2534.688958141691</v>
+        <v>2574.358745311557</v>
       </c>
       <c r="R36" t="n">
         <v>2574.358745311557</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>753.2627091716163</v>
+        <v>753.2627091716161</v>
       </c>
       <c r="C37" t="n">
-        <v>635.0508594282761</v>
+        <v>635.0508594282758</v>
       </c>
       <c r="D37" t="n">
-        <v>535.6585532005071</v>
+        <v>535.6585532005067</v>
       </c>
       <c r="E37" t="n">
-        <v>438.4697928026807</v>
+        <v>438.4697928026803</v>
       </c>
       <c r="F37" t="n">
-        <v>342.304178489337</v>
+        <v>342.3041784893366</v>
       </c>
       <c r="G37" t="n">
-        <v>225.253273843447</v>
+        <v>225.2532738434466</v>
       </c>
       <c r="H37" t="n">
         <v>129.116707712582</v>
       </c>
       <c r="I37" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J37" t="n">
         <v>170.1587116408336</v>
       </c>
       <c r="K37" t="n">
-        <v>415.6165027907881</v>
+        <v>415.6165027907879</v>
       </c>
       <c r="L37" t="n">
-        <v>771.3413408463374</v>
+        <v>771.3413408463366</v>
       </c>
       <c r="M37" t="n">
-        <v>1154.089936830755</v>
+        <v>1154.089936830754</v>
       </c>
       <c r="N37" t="n">
         <v>1534.354352764115</v>
       </c>
       <c r="O37" t="n">
-        <v>1873.368937650503</v>
+        <v>1873.368937650502</v>
       </c>
       <c r="P37" t="n">
-        <v>2147.109016642468</v>
+        <v>2147.109016642467</v>
       </c>
       <c r="Q37" t="n">
         <v>2268.492264116394</v>
       </c>
       <c r="R37" t="n">
-        <v>2226.13071859668</v>
+        <v>2226.130718596679</v>
       </c>
       <c r="S37" t="n">
-        <v>2083.907412059693</v>
+        <v>2083.907412059692</v>
       </c>
       <c r="T37" t="n">
         <v>1912.555779209853</v>
@@ -7135,10 +7135,10 @@
         <v>1231.520304489703</v>
       </c>
       <c r="X37" t="n">
-        <v>1054.255086776253</v>
+        <v>1054.255086776252</v>
       </c>
       <c r="Y37" t="n">
-        <v>884.1868408172893</v>
+        <v>884.1868408172891</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1388.685343167566</v>
       </c>
       <c r="E38" t="n">
-        <v>1053.621423753888</v>
+        <v>1053.621423753889</v>
       </c>
       <c r="F38" t="n">
-        <v>693.3598521488475</v>
+        <v>693.3598521488477</v>
       </c>
       <c r="G38" t="n">
         <v>328.8503291111392</v>
@@ -7175,22 +7175,22 @@
         <v>255.790667625187</v>
       </c>
       <c r="K38" t="n">
-        <v>569.4871602802313</v>
+        <v>890.3911187256844</v>
       </c>
       <c r="L38" t="n">
-        <v>995.5571602181084</v>
+        <v>1316.461118663562</v>
       </c>
       <c r="M38" t="n">
-        <v>1501.311567493123</v>
+        <v>2267.23392409648</v>
       </c>
       <c r="N38" t="n">
-        <v>2019.863418206634</v>
+        <v>2785.785774809991</v>
       </c>
       <c r="O38" t="n">
-        <v>2873.174144638778</v>
+        <v>3262.104321792018</v>
       </c>
       <c r="P38" t="n">
-        <v>3526.428172785871</v>
+        <v>3634.130180763165</v>
       </c>
       <c r="Q38" t="n">
         <v>3967.823193632785</v>
@@ -7205,19 +7205,19 @@
         <v>3797.698755364438</v>
       </c>
       <c r="U38" t="n">
-        <v>3594.879699337459</v>
+        <v>3594.879699337461</v>
       </c>
       <c r="V38" t="n">
-        <v>3314.541145178456</v>
+        <v>3314.541145178457</v>
       </c>
       <c r="W38" t="n">
-        <v>3012.496823092908</v>
+        <v>3012.496823092909</v>
       </c>
       <c r="X38" t="n">
-        <v>2689.755398016395</v>
+        <v>2689.755398016396</v>
       </c>
       <c r="Y38" t="n">
-        <v>2350.34039922515</v>
+        <v>2350.340399225151</v>
       </c>
     </row>
     <row r="39">
@@ -7251,10 +7251,10 @@
         <v>80.33806201802838</v>
       </c>
       <c r="J39" t="n">
-        <v>166.0185849899808</v>
+        <v>290.8487099769854</v>
       </c>
       <c r="K39" t="n">
-        <v>390.6150704668839</v>
+        <v>515.4451954538886</v>
       </c>
       <c r="L39" t="n">
         <v>865.0223946864055</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>753.2627091716163</v>
+        <v>753.2627091716164</v>
       </c>
       <c r="C40" t="n">
-        <v>635.050859428276</v>
+        <v>635.0508594282761</v>
       </c>
       <c r="D40" t="n">
-        <v>535.658553200507</v>
+        <v>535.6585532005071</v>
       </c>
       <c r="E40" t="n">
         <v>438.4697928026806</v>
@@ -7321,10 +7321,10 @@
         <v>342.3041784893369</v>
       </c>
       <c r="G40" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434469</v>
       </c>
       <c r="H40" t="n">
-        <v>129.1167077125819</v>
+        <v>129.116707712582</v>
       </c>
       <c r="I40" t="n">
         <v>80.33806201802838</v>
@@ -7333,7 +7333,7 @@
         <v>170.1587116408336</v>
       </c>
       <c r="K40" t="n">
-        <v>415.6165027907878</v>
+        <v>415.6165027907879</v>
       </c>
       <c r="L40" t="n">
         <v>771.3413408463371</v>
@@ -7348,34 +7348,34 @@
         <v>1873.368937650503</v>
       </c>
       <c r="P40" t="n">
-        <v>2147.109016642467</v>
+        <v>2147.109016642468</v>
       </c>
       <c r="Q40" t="n">
-        <v>2268.492264116394</v>
+        <v>2268.492264116395</v>
       </c>
       <c r="R40" t="n">
-        <v>2226.130718596679</v>
+        <v>2226.13071859668</v>
       </c>
       <c r="S40" t="n">
-        <v>2083.907412059692</v>
+        <v>2083.907412059693</v>
       </c>
       <c r="T40" t="n">
         <v>1912.555779209853</v>
       </c>
       <c r="U40" t="n">
-        <v>1674.173296363417</v>
+        <v>1674.173296363418</v>
       </c>
       <c r="V40" t="n">
-        <v>1470.213141342097</v>
+        <v>1470.213141342098</v>
       </c>
       <c r="W40" t="n">
-        <v>1231.520304489703</v>
+        <v>1231.520304489704</v>
       </c>
       <c r="X40" t="n">
-        <v>1054.255086776252</v>
+        <v>1054.255086776253</v>
       </c>
       <c r="Y40" t="n">
-        <v>884.1868408172893</v>
+        <v>884.1868408172894</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2014.464892345595</v>
+        <v>2014.464892345594</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.22670858975</v>
+        <v>1696.226708589749</v>
       </c>
       <c r="D41" t="n">
         <v>1388.685343167566</v>
       </c>
       <c r="E41" t="n">
-        <v>1053.621423753888</v>
+        <v>1053.621423753889</v>
       </c>
       <c r="F41" t="n">
-        <v>693.3598521488475</v>
+        <v>693.3598521488477</v>
       </c>
       <c r="G41" t="n">
-        <v>328.8503291111392</v>
+        <v>328.8503291111393</v>
       </c>
       <c r="H41" t="n">
         <v>80.33806201802838</v>
@@ -7409,25 +7409,25 @@
         <v>80.33806201802838</v>
       </c>
       <c r="J41" t="n">
-        <v>255.790667625187</v>
+        <v>423.19631664554</v>
       </c>
       <c r="K41" t="n">
-        <v>569.4871602802313</v>
+        <v>736.8928093005843</v>
       </c>
       <c r="L41" t="n">
-        <v>995.5571602181084</v>
+        <v>1162.962809238461</v>
       </c>
       <c r="M41" t="n">
-        <v>1501.311567493123</v>
+        <v>1668.717216513476</v>
       </c>
       <c r="N41" t="n">
-        <v>2452.836873374498</v>
+        <v>2187.269067226986</v>
       </c>
       <c r="O41" t="n">
-        <v>3306.147599806642</v>
+        <v>3040.579793659131</v>
       </c>
       <c r="P41" t="n">
-        <v>3736.620013539176</v>
+        <v>3526.428172785871</v>
       </c>
       <c r="Q41" t="n">
         <v>3967.823193632785</v>
@@ -7445,16 +7445,16 @@
         <v>3594.879699337459</v>
       </c>
       <c r="V41" t="n">
-        <v>3314.541145178456</v>
+        <v>3314.541145178455</v>
       </c>
       <c r="W41" t="n">
         <v>3012.496823092908</v>
       </c>
       <c r="X41" t="n">
-        <v>2689.755398016395</v>
+        <v>2689.755398016394</v>
       </c>
       <c r="Y41" t="n">
-        <v>2350.34039922515</v>
+        <v>2350.340399225149</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7494,16 @@
         <v>390.6150704668839</v>
       </c>
       <c r="L42" t="n">
-        <v>738.9353032735603</v>
+        <v>865.0223946864055</v>
       </c>
       <c r="M42" t="n">
-        <v>1164.765453927227</v>
+        <v>1290.852545340072</v>
       </c>
       <c r="N42" t="n">
-        <v>1616.274706487284</v>
+        <v>1742.361797900129</v>
       </c>
       <c r="O42" t="n">
-        <v>2007.097667888625</v>
+        <v>2133.184759301471</v>
       </c>
       <c r="P42" t="n">
         <v>2427.521575143683</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>753.2627091716161</v>
+        <v>753.2627091716149</v>
       </c>
       <c r="C43" t="n">
-        <v>635.0508594282759</v>
+        <v>635.0508594282746</v>
       </c>
       <c r="D43" t="n">
-        <v>535.6585532005068</v>
+        <v>535.6585532005056</v>
       </c>
       <c r="E43" t="n">
-        <v>438.4697928026804</v>
+        <v>438.4697928026791</v>
       </c>
       <c r="F43" t="n">
-        <v>342.3041784893368</v>
+        <v>342.3041784893354</v>
       </c>
       <c r="G43" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434452</v>
       </c>
       <c r="H43" t="n">
-        <v>129.1167077125819</v>
+        <v>129.1167077125803</v>
       </c>
       <c r="I43" t="n">
         <v>80.33806201802838</v>
@@ -7570,10 +7570,10 @@
         <v>170.1587116408336</v>
       </c>
       <c r="K43" t="n">
-        <v>415.6165027907879</v>
+        <v>415.6165027907878</v>
       </c>
       <c r="L43" t="n">
-        <v>771.3413408463373</v>
+        <v>771.3413408463371</v>
       </c>
       <c r="M43" t="n">
         <v>1154.089936830755</v>
@@ -7585,34 +7585,34 @@
         <v>1873.368937650503</v>
       </c>
       <c r="P43" t="n">
-        <v>2147.109016642468</v>
+        <v>2147.109016642467</v>
       </c>
       <c r="Q43" t="n">
-        <v>2268.492264116395</v>
+        <v>2268.492264116394</v>
       </c>
       <c r="R43" t="n">
-        <v>2226.13071859668</v>
+        <v>2226.130718596679</v>
       </c>
       <c r="S43" t="n">
         <v>2083.907412059692</v>
       </c>
       <c r="T43" t="n">
-        <v>1912.555779209853</v>
+        <v>1912.555779209852</v>
       </c>
       <c r="U43" t="n">
-        <v>1674.173296363417</v>
+        <v>1674.173296363416</v>
       </c>
       <c r="V43" t="n">
-        <v>1470.213141342097</v>
+        <v>1470.213141342096</v>
       </c>
       <c r="W43" t="n">
-        <v>1231.520304489703</v>
+        <v>1231.520304489702</v>
       </c>
       <c r="X43" t="n">
-        <v>1054.255086776252</v>
+        <v>1054.255086776251</v>
       </c>
       <c r="Y43" t="n">
-        <v>884.1868408172891</v>
+        <v>884.1868408172879</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2014.464892345595</v>
+        <v>2014.464892345594</v>
       </c>
       <c r="C44" t="n">
-        <v>1696.22670858975</v>
+        <v>1696.226708589749</v>
       </c>
       <c r="D44" t="n">
-        <v>1388.685343167566</v>
+        <v>1388.685343167565</v>
       </c>
       <c r="E44" t="n">
-        <v>1053.621423753888</v>
+        <v>1053.621423753889</v>
       </c>
       <c r="F44" t="n">
-        <v>693.3598521488475</v>
+        <v>693.3598521488477</v>
       </c>
       <c r="G44" t="n">
-        <v>328.8503291111392</v>
+        <v>328.8503291111393</v>
       </c>
       <c r="H44" t="n">
         <v>80.33806201802838</v>
@@ -7646,28 +7646,28 @@
         <v>80.33806201802838</v>
       </c>
       <c r="J44" t="n">
-        <v>423.19631664554</v>
+        <v>255.790667625187</v>
       </c>
       <c r="K44" t="n">
-        <v>736.8928093005843</v>
+        <v>569.4871602802313</v>
       </c>
       <c r="L44" t="n">
-        <v>1576.447411643407</v>
+        <v>995.5571602181084</v>
       </c>
       <c r="M44" t="n">
-        <v>2082.201818918422</v>
+        <v>1946.329965651027</v>
       </c>
       <c r="N44" t="n">
-        <v>2600.753669631933</v>
+        <v>2823.216351911751</v>
       </c>
       <c r="O44" t="n">
-        <v>3364.594154568029</v>
+        <v>3299.534898893777</v>
       </c>
       <c r="P44" t="n">
-        <v>3736.620013539176</v>
+        <v>3671.560757864924</v>
       </c>
       <c r="Q44" t="n">
-        <v>3967.823193632785</v>
+        <v>3902.763937958533</v>
       </c>
       <c r="R44" t="n">
         <v>4016.903100901419</v>
@@ -7688,10 +7688,10 @@
         <v>3012.496823092908</v>
       </c>
       <c r="X44" t="n">
-        <v>2689.755398016395</v>
+        <v>2689.755398016394</v>
       </c>
       <c r="Y44" t="n">
-        <v>2350.34039922515</v>
+        <v>2350.340399225149</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>753.2627091716161</v>
+        <v>753.2627091716149</v>
       </c>
       <c r="C46" t="n">
-        <v>635.0508594282759</v>
+        <v>635.0508594282746</v>
       </c>
       <c r="D46" t="n">
-        <v>535.6585532005068</v>
+        <v>535.6585532005056</v>
       </c>
       <c r="E46" t="n">
-        <v>438.4697928026804</v>
+        <v>438.4697928026791</v>
       </c>
       <c r="F46" t="n">
-        <v>342.3041784893368</v>
+        <v>342.3041784893354</v>
       </c>
       <c r="G46" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434452</v>
       </c>
       <c r="H46" t="n">
-        <v>129.1167077125819</v>
+        <v>129.116707712582</v>
       </c>
       <c r="I46" t="n">
         <v>80.33806201802838</v>
@@ -7807,10 +7807,10 @@
         <v>170.1587116408336</v>
       </c>
       <c r="K46" t="n">
-        <v>415.6165027907879</v>
+        <v>415.6165027907878</v>
       </c>
       <c r="L46" t="n">
-        <v>771.3413408463373</v>
+        <v>771.3413408463371</v>
       </c>
       <c r="M46" t="n">
         <v>1154.089936830755</v>
@@ -7822,10 +7822,10 @@
         <v>1873.368937650503</v>
       </c>
       <c r="P46" t="n">
-        <v>2147.109016642468</v>
+        <v>2147.109016642467</v>
       </c>
       <c r="Q46" t="n">
-        <v>2268.492264116395</v>
+        <v>2268.492264116394</v>
       </c>
       <c r="R46" t="n">
         <v>2226.130718596679</v>
@@ -7834,22 +7834,22 @@
         <v>2083.907412059692</v>
       </c>
       <c r="T46" t="n">
-        <v>1912.555779209853</v>
+        <v>1912.555779209852</v>
       </c>
       <c r="U46" t="n">
-        <v>1674.173296363417</v>
+        <v>1674.173296363416</v>
       </c>
       <c r="V46" t="n">
-        <v>1470.213141342097</v>
+        <v>1470.213141342096</v>
       </c>
       <c r="W46" t="n">
-        <v>1231.520304489703</v>
+        <v>1231.520304489702</v>
       </c>
       <c r="X46" t="n">
-        <v>1054.255086776252</v>
+        <v>1054.255086776251</v>
       </c>
       <c r="Y46" t="n">
-        <v>884.1868408172891</v>
+        <v>884.1868408172879</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>250.4508600602684</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N2" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,19 +8061,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>153.2388248701553</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M3" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P3" t="n">
-        <v>149.2771449294653</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q3" t="n">
         <v>155.2845116011566</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>234.7742961352617</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M5" t="n">
-        <v>245.6489707424078</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>152.5258840646401</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>153.2388248701553</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>155.2845116011566</v>
@@ -8380,13 +8380,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M7" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N7" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O7" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>234.7742961352617</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
@@ -8465,7 +8465,7 @@
         <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>244.7826565119678</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8541,16 +8541,16 @@
         <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
         <v>157.8989819595795</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q9" t="n">
-        <v>154.6662191763026</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,13 +8617,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N10" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>173.9737156726682</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>137.7241069541971</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>127.3606983968135</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>5.45117772054661</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>58.42549943216716</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>439.8371052641456</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9009,10 +9009,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>127.3606983968135</v>
       </c>
       <c r="M15" t="n">
-        <v>127.3606983968135</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>383.9420019328913</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.00621398995224</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.269663056404625</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>127.3606983968135</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>5.45117772054661</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>174.5851402419019</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>108.2572957996867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9486,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>127.3606983968133</v>
       </c>
       <c r="N21" t="n">
-        <v>127.3606983968135</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>59.03692400140088</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,13 +9647,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>172.2384358422198</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>127.3606983968135</v>
       </c>
       <c r="R24" t="n">
-        <v>6.72084077695146</v>
+        <v>5.45117772054661</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>309.2159205642849</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>278.7769905870967</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>87.29020630603873</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>127.3606983968131</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>5.45117772054661</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,25 +10115,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>225.2271797949632</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>182.914484208129</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>127.3606983968133</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>127.360698396813</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>281.8819484865439</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>139.1859899577227</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>127.3606983968132</v>
       </c>
       <c r="M33" t="n">
-        <v>1.269663056404397</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>161.8056947312589</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>103.5250836121331</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>87.29020630603912</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>127.3606983968135</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>5.45117772054661</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,25 +10823,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>284.0688577534806</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>103.525083612133</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>127.3606983968134</v>
+        <v>1.269663056404625</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,16 +11069,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>59.03692400140073</v>
+        <v>114.9722425814069</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>127.3606983968134</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>127.3606983968135</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>361.9540763103161</v>
       </c>
       <c r="O44" t="n">
-        <v>290.4261999536055</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4.689582056016661e-13</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.04013603165704</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0974854521522</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.3922903222773</v>
       </c>
       <c r="I28" t="n">
-        <v>98.50794909032903</v>
+        <v>39.71370072763478</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.15501991723843</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>191.0181633243382</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.8552063740624</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>145.3922903222773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.50794909032903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>92.15501991723843</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>191.0181633243382</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>3.669019752494194</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2157478706923</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>128.1627338561854</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>16.93639029708274</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0974854521522</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.3922903222773</v>
       </c>
       <c r="I34" t="n">
         <v>98.50794909032903</v>
@@ -25123,16 +25123,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>191.0181633243382</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.8552063740624</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2157478706923</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>109.53138577577</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.726618847897043e-12</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.733724275254644e-12</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>682224.0917725877</v>
+        <v>682224.0917725875</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>682224.0917725875</v>
+        <v>682224.0917725876</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
-        <v>779989.6813710707</v>
+        <v>779989.6813710708</v>
       </c>
       <c r="F2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710701</v>
       </c>
       <c r="G2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710697</v>
       </c>
       <c r="H2" t="n">
-        <v>779989.6813710709</v>
+        <v>779989.6813710699</v>
       </c>
       <c r="I2" t="n">
-        <v>779989.681371071</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="J2" t="n">
+        <v>752693.1657877245</v>
+      </c>
+      <c r="K2" t="n">
         <v>752693.1657877247</v>
       </c>
-      <c r="K2" t="n">
-        <v>752693.1657877244</v>
-      </c>
       <c r="L2" t="n">
-        <v>752693.1657877244</v>
+        <v>752693.1657877247</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710697</v>
+        <v>779989.681371069</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.681371071</v>
+        <v>779989.6813710672</v>
       </c>
       <c r="P2" t="n">
-        <v>779989.6813710707</v>
+        <v>779989.6813710671</v>
       </c>
     </row>
     <row r="3">
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54621.31550453384</v>
+        <v>54621.31550453386</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>408123.0807897231</v>
       </c>
       <c r="E4" t="n">
+        <v>81418.75251059837</v>
+      </c>
+      <c r="F4" t="n">
+        <v>81418.75251059837</v>
+      </c>
+      <c r="G4" t="n">
+        <v>81418.75251059832</v>
+      </c>
+      <c r="H4" t="n">
         <v>81418.75251059834</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>81418.75251059834</v>
+      </c>
+      <c r="J4" t="n">
+        <v>49168.78041078203</v>
+      </c>
+      <c r="K4" t="n">
+        <v>49168.78041078205</v>
+      </c>
+      <c r="L4" t="n">
+        <v>49168.78041078206</v>
+      </c>
+      <c r="M4" t="n">
         <v>81418.75251059832</v>
       </c>
-      <c r="G4" t="n">
-        <v>81418.75251059835</v>
-      </c>
-      <c r="H4" t="n">
-        <v>81418.75251059835</v>
-      </c>
-      <c r="I4" t="n">
-        <v>81418.75251059838</v>
-      </c>
-      <c r="J4" t="n">
-        <v>49168.78041078204</v>
-      </c>
-      <c r="K4" t="n">
-        <v>49168.78041078203</v>
-      </c>
-      <c r="L4" t="n">
-        <v>49168.78041078203</v>
-      </c>
-      <c r="M4" t="n">
-        <v>81418.75251059837</v>
-      </c>
       <c r="N4" t="n">
-        <v>81418.75251059834</v>
+        <v>81418.75251059832</v>
       </c>
       <c r="O4" t="n">
-        <v>81418.75251059837</v>
+        <v>81418.75251059828</v>
       </c>
       <c r="P4" t="n">
-        <v>81418.75251059837</v>
+        <v>81418.75251059828</v>
       </c>
     </row>
     <row r="5">
@@ -26519,10 +26519,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>332180.2948361409</v>
+        <v>332180.2948361413</v>
       </c>
       <c r="C6" t="n">
-        <v>337308.5941404256</v>
+        <v>337308.594140426</v>
       </c>
       <c r="D6" t="n">
         <v>337308.5941404258</v>
@@ -26531,37 +26531,37 @@
         <v>-568638.6513440509</v>
       </c>
       <c r="F6" t="n">
-        <v>610401.6812307913</v>
+        <v>610401.6812307916</v>
       </c>
       <c r="G6" t="n">
-        <v>610401.6812307911</v>
+        <v>610401.6812307914</v>
       </c>
       <c r="H6" t="n">
-        <v>610401.6812307924</v>
+        <v>610401.6812307915</v>
       </c>
       <c r="I6" t="n">
-        <v>610401.6812307925</v>
+        <v>610401.681230791</v>
       </c>
       <c r="J6" t="n">
-        <v>553193.201753797</v>
+        <v>553121.3688180513</v>
       </c>
       <c r="K6" t="n">
-        <v>607814.5172583306</v>
+        <v>607742.6843225852</v>
       </c>
       <c r="L6" t="n">
-        <v>607814.5172583306</v>
+        <v>607742.6843225852</v>
       </c>
       <c r="M6" t="n">
-        <v>371995.2459224235</v>
+        <v>371995.245922423</v>
       </c>
       <c r="N6" t="n">
-        <v>610401.6812307913</v>
+        <v>610401.6812307901</v>
       </c>
       <c r="O6" t="n">
-        <v>610401.6812307925</v>
+        <v>610401.6812307888</v>
       </c>
       <c r="P6" t="n">
-        <v>610401.6812307922</v>
+        <v>610401.6812307887</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F2" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="G2" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="H2" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="I2" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="N2" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="O2" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="P2" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
     </row>
     <row r="3">
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>208.7619647480311</v>
+        <v>208.761964748031</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>795.4638104773235</v>
+        <v>795.4638104773237</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>349.9701542558725</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27421,22 +27421,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.5663804260146</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>197.1054258240356</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>207.7931120489963</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>321.1496530085154</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,7 +27458,7 @@
         <v>153.0545324465364</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>157.4057614731807</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>236.3922456457846</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y3" t="n">
         <v>190.3799582621693</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>78.05644260153773</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27579,10 +27579,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27594,13 +27594,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>238.6589921204971</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>273.04434713326</v>
       </c>
       <c r="X4" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.7777880413386</v>
+        <v>367.4311041483455</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27634,10 +27634,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>195.1731520552709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>312.4495209549999</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>342.6383632557935</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C6" t="n">
-        <v>159.2298477849848</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>144.16642925207</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27743,22 +27743,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>156.3804335887028</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U6" t="n">
-        <v>210.6386445658398</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>190.4702476883424</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>152.6882418433237</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>141.9718237239273</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27819,7 +27819,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S7" t="n">
         <v>208.7138605218372</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>212.2310041857062</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.4311041483455</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27901,7 +27901,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>193.7173320711103</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>333.938231202278</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>354.428363163334</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>157.4057614731807</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>186.6860774914907</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>212.4627308776439</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W9" t="n">
         <v>236.3922456457846</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>131.9423968196003</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>152.6882418433237</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28056,10 +28056,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>273.04434713326</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>210.4069178739021</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="C11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="D11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="E11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="G11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="H11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="I11" t="n">
         <v>47.7373111073274</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="T11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="U11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="V11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="W11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="X11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="C13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="D13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="E13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="G13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="H13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="I13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="J13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="K13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="L13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="M13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="N13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="O13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="P13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="R13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="S13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="T13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="U13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="V13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="W13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="X13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="C14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="D14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="E14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="G14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="H14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="I14" t="n">
         <v>47.7373111073274</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="T14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="U14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="V14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="W14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="X14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="C16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="D16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="E16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="F16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="G16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="H16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="I16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="J16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="K16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="L16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="M16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="N16" t="n">
-        <v>50.21708985272028</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="O16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="P16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="R16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="S16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="T16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="U16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="V16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="W16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="X16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272107</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="C17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="D17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="E17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="F17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="G17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="H17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="I17" t="n">
         <v>47.7373111073274</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="T17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="U17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="V17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="W17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="X17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="C19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="D19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="E19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="F19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="G19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="H19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="I19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="J19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="K19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="L19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="M19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="N19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="O19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="P19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="R19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="S19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="T19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="U19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="V19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="W19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="X19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="C20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="D20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="E20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="F20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="G20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="H20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="I20" t="n">
         <v>47.7373111073274</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="T20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="U20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="V20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="W20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="X20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="C22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="D22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="E22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="F22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="G22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="H22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="I22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="J22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="K22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="L22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="M22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="N22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="O22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="P22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272168</v>
       </c>
       <c r="R22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="S22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="T22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="U22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="V22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="W22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="X22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272102</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="C23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="D23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="E23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="F23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="G23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="H23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="I23" t="n">
         <v>47.7373111073274</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="T23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="U23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="V23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="W23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="X23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="C25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="D25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="E25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="F25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="G25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="H25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="I25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="J25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="K25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="L25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="M25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="N25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="O25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="P25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="R25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="S25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="T25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="U25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="V25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="W25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="X25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.21708985272107</v>
+        <v>50.21708985272102</v>
       </c>
     </row>
     <row r="26">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="C35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="D35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="E35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="F35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="G35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="H35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="I35" t="n">
         <v>47.7373111073274</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="T35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="U35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="V35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="W35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="X35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="Y35" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="C37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="D37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="E37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="F37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="G37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="H37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="I37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="J37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="K37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="L37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="M37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="N37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="O37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="P37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="R37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="S37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="T37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="U37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="V37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="W37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="X37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.21708985272105</v>
+        <v>50.217089852721</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="C38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="D38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="E38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="F38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="G38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="H38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="I38" t="n">
         <v>47.7373111073274</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="T38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="U38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="V38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="W38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="X38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="Y38" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="C40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="D40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="E40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="F40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="G40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="H40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="I40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="J40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="K40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="L40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="M40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.21708985272153</v>
       </c>
       <c r="N40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="O40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="P40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="R40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="S40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="T40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="U40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="V40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="W40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="X40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.21708985272102</v>
+        <v>50.217089852721</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="C41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="D41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="E41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="F41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="G41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="H41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="I41" t="n">
         <v>47.7373111073274</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="T41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="U41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="V41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="W41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="X41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="C43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="D43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="E43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="F43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="G43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="H43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="I43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="J43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="K43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="L43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="M43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="N43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="O43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="P43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="R43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="S43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="T43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="U43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="V43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="W43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="X43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="C44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="D44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="E44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="F44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="G44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="H44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="I44" t="n">
         <v>47.7373111073274</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="T44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="U44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="V44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="W44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="X44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="C46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="D46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="E46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="F46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="G46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="H46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="I46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="J46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="K46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="L46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="M46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="N46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="O46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="P46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="R46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="S46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="T46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="U46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="V46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="W46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="X46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272096</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34705,16 @@
         <v>14.68444509028111</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="P3" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="M3" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="Q3" t="n">
         <v>15.30273751513505</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M5" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="L6" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>15.30273751513505</v>
@@ -35100,13 +35100,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M7" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N7" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O7" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O8" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N10" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>177.224854148645</v>
+        <v>346.3214693207188</v>
       </c>
       <c r="K11" t="n">
-        <v>316.8651440960044</v>
+        <v>490.8388597686726</v>
       </c>
       <c r="L11" t="n">
-        <v>848.0349518614374</v>
+        <v>430.373737310987</v>
       </c>
       <c r="M11" t="n">
         <v>510.8630376515297</v>
@@ -35422,13 +35422,13 @@
         <v>523.7897481954656</v>
       </c>
       <c r="O11" t="n">
-        <v>618.8539523905873</v>
+        <v>481.1298454363903</v>
       </c>
       <c r="P11" t="n">
         <v>697.5824041019343</v>
       </c>
       <c r="Q11" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R11" t="n">
         <v>49.57566390771098</v>
@@ -35495,7 +35495,7 @@
         <v>351.8386189966428</v>
       </c>
       <c r="M12" t="n">
-        <v>557.4921637035474</v>
+        <v>430.1314653067339</v>
       </c>
       <c r="N12" t="n">
         <v>456.0699520808658</v>
@@ -35507,7 +35507,7 @@
         <v>297.3099149921337</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.3203739069438</v>
+        <v>275.6810723037573</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192455</v>
       </c>
       <c r="K13" t="n">
         <v>247.9371627777316</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>177.224854148645</v>
+        <v>346.3214693207188</v>
       </c>
       <c r="K14" t="n">
-        <v>316.8651440960044</v>
+        <v>375.2906435281715</v>
       </c>
       <c r="L14" t="n">
         <v>430.373737310987</v>
       </c>
       <c r="M14" t="n">
-        <v>950.7001429156753</v>
+        <v>510.8630376515297</v>
       </c>
       <c r="N14" t="n">
         <v>961.1366726074497</v>
@@ -35665,7 +35665,7 @@
         <v>375.7836959304516</v>
       </c>
       <c r="Q14" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R14" t="n">
         <v>49.57566390771098</v>
@@ -35729,10 +35729,10 @@
         <v>226.8651368453567</v>
       </c>
       <c r="L15" t="n">
-        <v>351.8386189966428</v>
+        <v>479.1993173934562</v>
       </c>
       <c r="M15" t="n">
-        <v>557.4921637035474</v>
+        <v>430.1314653067339</v>
       </c>
       <c r="N15" t="n">
         <v>456.0699520808658</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192455</v>
       </c>
       <c r="K16" t="n">
         <v>247.9371627777316</v>
@@ -35814,7 +35814,7 @@
         <v>386.6147434186036</v>
       </c>
       <c r="N16" t="n">
-        <v>384.1054706397573</v>
+        <v>384.1054706397581</v>
       </c>
       <c r="O16" t="n">
         <v>342.4389746327148</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>177.224854148645</v>
+        <v>346.3214693207188</v>
       </c>
       <c r="K17" t="n">
-        <v>316.8651440960044</v>
+        <v>641.0105566671691</v>
       </c>
       <c r="L17" t="n">
-        <v>848.0349518614374</v>
+        <v>430.373737310987</v>
       </c>
       <c r="M17" t="n">
-        <v>510.8630376515297</v>
+        <v>894.805039584421</v>
       </c>
       <c r="N17" t="n">
         <v>523.7897481954656</v>
       </c>
       <c r="O17" t="n">
-        <v>861.9300266991356</v>
+        <v>481.1298454363903</v>
       </c>
       <c r="P17" t="n">
-        <v>388.7899099204039</v>
+        <v>375.7836959304516</v>
       </c>
       <c r="Q17" t="n">
         <v>233.5385657511199</v>
       </c>
       <c r="R17" t="n">
-        <v>115.2920837806934</v>
+        <v>49.57566390771098</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>86.54598279995187</v>
+        <v>212.6370181403607</v>
       </c>
       <c r="K18" t="n">
-        <v>226.8651368453567</v>
+        <v>228.1347999017613</v>
       </c>
       <c r="L18" t="n">
         <v>351.8386189966428</v>
@@ -35981,7 +35981,7 @@
         <v>297.3099149921337</v>
       </c>
       <c r="Q18" t="n">
-        <v>275.6810723037573</v>
+        <v>148.3203739069438</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192449</v>
       </c>
       <c r="K19" t="n">
         <v>247.9371627777316</v>
       </c>
       <c r="L19" t="n">
-        <v>359.3180182379286</v>
+        <v>359.3180182379285</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6147434186036</v>
+        <v>386.6147434186035</v>
       </c>
       <c r="N19" t="n">
         <v>384.1054706397581</v>
       </c>
       <c r="O19" t="n">
-        <v>342.4389746327148</v>
+        <v>342.4389746327147</v>
       </c>
       <c r="P19" t="n">
-        <v>276.5051302949139</v>
+        <v>276.5051302949138</v>
       </c>
       <c r="Q19" t="n">
-        <v>122.6093408827544</v>
+        <v>122.6093408827543</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>346.3214693207188</v>
+        <v>177.224854148645</v>
       </c>
       <c r="K20" t="n">
-        <v>316.8651440960044</v>
+        <v>491.4502843379063</v>
       </c>
       <c r="L20" t="n">
         <v>430.373737310987</v>
@@ -36133,16 +36133,16 @@
         <v>523.7897481954656</v>
       </c>
       <c r="O20" t="n">
-        <v>589.387141236077</v>
+        <v>861.9300266991356</v>
       </c>
       <c r="P20" t="n">
         <v>697.5824041019343</v>
       </c>
       <c r="Q20" t="n">
-        <v>445.8535564110246</v>
+        <v>233.5385657511199</v>
       </c>
       <c r="R20" t="n">
-        <v>115.2920837806934</v>
+        <v>49.57566390771098</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>351.8386189966428</v>
       </c>
       <c r="M21" t="n">
-        <v>430.1314653067339</v>
+        <v>557.4921637035472</v>
       </c>
       <c r="N21" t="n">
-        <v>583.4306504776794</v>
+        <v>456.0699520808658</v>
       </c>
       <c r="O21" t="n">
         <v>394.7706680821632</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192449</v>
       </c>
       <c r="K22" t="n">
         <v>247.9371627777316</v>
       </c>
       <c r="L22" t="n">
-        <v>359.3180182379286</v>
+        <v>359.3180182379285</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6147434186036</v>
+        <v>386.6147434186035</v>
       </c>
       <c r="N22" t="n">
         <v>384.1054706397581</v>
       </c>
       <c r="O22" t="n">
-        <v>342.4389746327148</v>
+        <v>342.4389746327147</v>
       </c>
       <c r="P22" t="n">
-        <v>276.5051302949139</v>
+        <v>276.5051302949138</v>
       </c>
       <c r="Q22" t="n">
-        <v>122.6093408827544</v>
+        <v>122.609340882755</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>177.224854148645</v>
+        <v>236.2617781500459</v>
       </c>
       <c r="K23" t="n">
-        <v>641.0105566671691</v>
+        <v>316.8651440960044</v>
       </c>
       <c r="L23" t="n">
         <v>430.373737310987</v>
@@ -36367,13 +36367,13 @@
         <v>510.8630376515297</v>
       </c>
       <c r="N23" t="n">
-        <v>523.7897481954656</v>
+        <v>961.1366726074497</v>
       </c>
       <c r="O23" t="n">
         <v>861.9300266991356</v>
       </c>
       <c r="P23" t="n">
-        <v>548.0221317726714</v>
+        <v>375.7836959304516</v>
       </c>
       <c r="Q23" t="n">
         <v>233.5385657511199</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>212.6370181403607</v>
+        <v>86.54598279995187</v>
       </c>
       <c r="K24" t="n">
         <v>226.8651368453567</v>
@@ -36455,10 +36455,10 @@
         <v>297.3099149921337</v>
       </c>
       <c r="Q24" t="n">
-        <v>148.3203739069438</v>
+        <v>275.6810723037573</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26966305640485</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>90.72792891192455</v>
+        <v>90.72792891192449</v>
       </c>
       <c r="K25" t="n">
         <v>247.9371627777316</v>
@@ -36522,19 +36522,19 @@
         <v>359.3180182379286</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6147434186036</v>
+        <v>386.6147434186035</v>
       </c>
       <c r="N25" t="n">
-        <v>384.1054706397581</v>
+        <v>384.105470639758</v>
       </c>
       <c r="O25" t="n">
-        <v>342.4389746327148</v>
+        <v>342.4389746327147</v>
       </c>
       <c r="P25" t="n">
-        <v>276.5051302949139</v>
+        <v>276.5051302949138</v>
       </c>
       <c r="Q25" t="n">
-        <v>122.6093408827544</v>
+        <v>122.6093408827543</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>346.3214693207188</v>
+        <v>177.224854148645</v>
       </c>
       <c r="K26" t="n">
         <v>316.8651440960044</v>
       </c>
       <c r="L26" t="n">
-        <v>739.5896578752719</v>
+        <v>430.373737310987</v>
       </c>
       <c r="M26" t="n">
         <v>960.3765711443622</v>
       </c>
       <c r="N26" t="n">
-        <v>961.1366726074497</v>
+        <v>802.5667387825623</v>
       </c>
       <c r="O26" t="n">
-        <v>481.1298454363903</v>
+        <v>861.9300266991356</v>
       </c>
       <c r="P26" t="n">
-        <v>375.7836959304516</v>
+        <v>697.5824041019343</v>
       </c>
       <c r="Q26" t="n">
         <v>445.8535564110246</v>
       </c>
       <c r="R26" t="n">
-        <v>115.2920837806934</v>
+        <v>49.57566390771098</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>430.1314653067339</v>
       </c>
       <c r="N27" t="n">
-        <v>543.3601583869046</v>
+        <v>456.0699520808658</v>
       </c>
       <c r="O27" t="n">
         <v>394.7706680821632</v>
@@ -36692,10 +36692,10 @@
         <v>297.3099149921337</v>
       </c>
       <c r="Q27" t="n">
-        <v>148.3203739069438</v>
+        <v>275.6810723037569</v>
       </c>
       <c r="R27" t="n">
-        <v>40.07049209077421</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>316.8651440960044</v>
       </c>
       <c r="L29" t="n">
-        <v>848.0349518614374</v>
+        <v>655.6009171059502</v>
       </c>
       <c r="M29" t="n">
-        <v>960.3765711443622</v>
+        <v>510.8630376515297</v>
       </c>
       <c r="N29" t="n">
-        <v>523.7897481954656</v>
+        <v>961.1366726074497</v>
       </c>
       <c r="O29" t="n">
         <v>861.9300266991356</v>
       </c>
       <c r="P29" t="n">
-        <v>558.6981801385806</v>
+        <v>697.5824041019343</v>
       </c>
       <c r="Q29" t="n">
         <v>445.8535564110246</v>
       </c>
       <c r="R29" t="n">
-        <v>49.57566390771098</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>456.0699520808658</v>
       </c>
       <c r="O30" t="n">
-        <v>522.1313664789765</v>
+        <v>394.7706680821632</v>
       </c>
       <c r="P30" t="n">
-        <v>297.3099149921337</v>
+        <v>424.6706133889467</v>
       </c>
       <c r="Q30" t="n">
         <v>148.3203739069438</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>346.3214693207188</v>
+        <v>177.224854148645</v>
       </c>
       <c r="K32" t="n">
         <v>641.0105566671691</v>
       </c>
       <c r="L32" t="n">
-        <v>848.0349518614374</v>
+        <v>430.373737310987</v>
       </c>
       <c r="M32" t="n">
-        <v>510.8630376515297</v>
+        <v>792.7449861380736</v>
       </c>
       <c r="N32" t="n">
-        <v>523.7897481954656</v>
+        <v>961.1366726074497</v>
       </c>
       <c r="O32" t="n">
-        <v>861.9300266991356</v>
+        <v>481.1298454363903</v>
       </c>
       <c r="P32" t="n">
-        <v>514.9696858881744</v>
+        <v>697.5824041019343</v>
       </c>
       <c r="Q32" t="n">
         <v>445.8535564110246</v>
       </c>
       <c r="R32" t="n">
-        <v>49.57566390771098</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>212.6370181403607</v>
+        <v>86.54598279995187</v>
       </c>
       <c r="K33" t="n">
         <v>226.8651368453567</v>
       </c>
       <c r="L33" t="n">
-        <v>351.8386189966428</v>
+        <v>479.1993173934559</v>
       </c>
       <c r="M33" t="n">
-        <v>431.4011283631383</v>
+        <v>430.1314653067339</v>
       </c>
       <c r="N33" t="n">
         <v>456.0699520808658</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>339.0305488799039</v>
+        <v>177.224854148645</v>
       </c>
       <c r="K35" t="n">
-        <v>316.8651440960044</v>
+        <v>641.0105566671691</v>
       </c>
       <c r="L35" t="n">
         <v>430.373737310987</v>
       </c>
       <c r="M35" t="n">
-        <v>510.8630376515297</v>
+        <v>960.3765711443622</v>
       </c>
       <c r="N35" t="n">
-        <v>961.1366726074497</v>
+        <v>627.3148318075987</v>
       </c>
       <c r="O35" t="n">
         <v>481.1298454363903</v>
@@ -37324,10 +37324,10 @@
         <v>375.7836959304516</v>
       </c>
       <c r="Q35" t="n">
-        <v>445.8535564110246</v>
+        <v>233.5385657511199</v>
       </c>
       <c r="R35" t="n">
-        <v>115.2920837806934</v>
+        <v>49.57566390771098</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>86.54598279995187</v>
       </c>
       <c r="K36" t="n">
-        <v>314.1553431513958</v>
+        <v>226.8651368453567</v>
       </c>
       <c r="L36" t="n">
         <v>351.8386189966428</v>
@@ -37403,10 +37403,10 @@
         <v>297.3099149921337</v>
       </c>
       <c r="Q36" t="n">
-        <v>148.3203739069438</v>
+        <v>275.6810723037573</v>
       </c>
       <c r="R36" t="n">
-        <v>40.07049209077421</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192448</v>
       </c>
       <c r="K37" t="n">
-        <v>247.9371627777316</v>
+        <v>247.9371627777315</v>
       </c>
       <c r="L37" t="n">
         <v>359.3180182379286</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6147434186036</v>
+        <v>386.6147434186035</v>
       </c>
       <c r="N37" t="n">
-        <v>384.1054706397581</v>
+        <v>384.105470639758</v>
       </c>
       <c r="O37" t="n">
-        <v>342.4389746327148</v>
+        <v>342.4389746327147</v>
       </c>
       <c r="P37" t="n">
-        <v>276.5051302949139</v>
+        <v>276.5051302949138</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.6093408827544</v>
+        <v>122.6093408827543</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>177.224854148645</v>
       </c>
       <c r="K38" t="n">
-        <v>316.8651440960044</v>
+        <v>641.0105566671691</v>
       </c>
       <c r="L38" t="n">
         <v>430.373737310987</v>
       </c>
       <c r="M38" t="n">
-        <v>510.8630376515297</v>
+        <v>960.3765711443622</v>
       </c>
       <c r="N38" t="n">
         <v>523.7897481954656</v>
       </c>
       <c r="O38" t="n">
-        <v>861.9300266991356</v>
+        <v>481.1298454363903</v>
       </c>
       <c r="P38" t="n">
-        <v>659.8525536839322</v>
+        <v>375.7836959304516</v>
       </c>
       <c r="Q38" t="n">
-        <v>445.8535564110246</v>
+        <v>337.0636493632529</v>
       </c>
       <c r="R38" t="n">
         <v>49.57566390771098</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>86.54598279995187</v>
+        <v>212.6370181403607</v>
       </c>
       <c r="K39" t="n">
         <v>226.8651368453567</v>
       </c>
       <c r="L39" t="n">
-        <v>479.1993173934562</v>
+        <v>353.1082820530474</v>
       </c>
       <c r="M39" t="n">
         <v>430.1314653067339</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.72792891192449</v>
+        <v>90.72792891192448</v>
       </c>
       <c r="K40" t="n">
-        <v>247.9371627777316</v>
+        <v>247.9371627777315</v>
       </c>
       <c r="L40" t="n">
-        <v>359.3180182379286</v>
+        <v>359.3180182379285</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6147434186035</v>
+        <v>386.614743418604</v>
       </c>
       <c r="N40" t="n">
         <v>384.105470639758</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>177.224854148645</v>
+        <v>346.3214693207188</v>
       </c>
       <c r="K41" t="n">
         <v>316.8651440960044</v>
@@ -37789,16 +37789,16 @@
         <v>510.8630376515297</v>
       </c>
       <c r="N41" t="n">
-        <v>961.1366726074497</v>
+        <v>523.7897481954656</v>
       </c>
       <c r="O41" t="n">
         <v>861.9300266991356</v>
       </c>
       <c r="P41" t="n">
-        <v>434.8206199318524</v>
+        <v>490.7559385118585</v>
       </c>
       <c r="Q41" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R41" t="n">
         <v>49.57566390771098</v>
@@ -37862,7 +37862,7 @@
         <v>226.8651368453567</v>
       </c>
       <c r="L42" t="n">
-        <v>351.8386189966428</v>
+        <v>479.1993173934562</v>
       </c>
       <c r="M42" t="n">
         <v>430.1314653067339</v>
@@ -37874,7 +37874,7 @@
         <v>394.7706680821632</v>
       </c>
       <c r="P42" t="n">
-        <v>424.6706133889471</v>
+        <v>297.3099149921337</v>
       </c>
       <c r="Q42" t="n">
         <v>148.3203739069438</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192444</v>
       </c>
       <c r="K43" t="n">
-        <v>247.9371627777316</v>
+        <v>247.9371627777315</v>
       </c>
       <c r="L43" t="n">
-        <v>359.3180182379286</v>
+        <v>359.3180182379285</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6147434186036</v>
+        <v>386.6147434186034</v>
       </c>
       <c r="N43" t="n">
-        <v>384.1054706397581</v>
+        <v>384.105470639758</v>
       </c>
       <c r="O43" t="n">
-        <v>342.4389746327148</v>
+        <v>342.4389746327147</v>
       </c>
       <c r="P43" t="n">
-        <v>276.5051302949139</v>
+        <v>276.5051302949138</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.6093408827544</v>
+        <v>122.6093408827543</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>346.3214693207188</v>
+        <v>177.224854148645</v>
       </c>
       <c r="K44" t="n">
         <v>316.8651440960044</v>
       </c>
       <c r="L44" t="n">
-        <v>848.0349518614374</v>
+        <v>430.373737310987</v>
       </c>
       <c r="M44" t="n">
-        <v>510.8630376515297</v>
+        <v>960.3765711443622</v>
       </c>
       <c r="N44" t="n">
-        <v>523.7897481954656</v>
+        <v>885.7438245057816</v>
       </c>
       <c r="O44" t="n">
-        <v>771.5560453899958</v>
+        <v>481.1298454363903</v>
       </c>
       <c r="P44" t="n">
         <v>375.7836959304516</v>
@@ -38038,7 +38038,7 @@
         <v>233.5385657511199</v>
       </c>
       <c r="R44" t="n">
-        <v>49.57566390771098</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192444</v>
       </c>
       <c r="K46" t="n">
-        <v>247.9371627777316</v>
+        <v>247.9371627777315</v>
       </c>
       <c r="L46" t="n">
-        <v>359.3180182379286</v>
+        <v>359.3180182379285</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6147434186036</v>
+        <v>386.6147434186034</v>
       </c>
       <c r="N46" t="n">
-        <v>384.1054706397581</v>
+        <v>384.105470639758</v>
       </c>
       <c r="O46" t="n">
-        <v>342.4389746327148</v>
+        <v>342.4389746327147</v>
       </c>
       <c r="P46" t="n">
-        <v>276.5051302949139</v>
+        <v>276.5051302949138</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.6093408827544</v>
+        <v>122.6093408827543</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
